--- a/observations/orbit_plans/mtp034/nomad_mtp034_plan.xlsx
+++ b/observations/orbit_plans/mtp034/nomad_mtp034_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="586">
   <si>
     <t>#orbitType</t>
   </si>
@@ -55,1722 +55,1701 @@
     <t>comment</t>
   </si>
   <si>
+    <t>Ice CO 2SUBD #2</t>
+  </si>
+  <si>
+    <t>2020 OCT 31 16:48:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=56; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #42</t>
+  </si>
+  <si>
+    <t>6SUBD CH4 #1</t>
+  </si>
+  <si>
+    <t>2020 OCT 31 18:46:42</t>
+  </si>
+  <si>
+    <t>2020 OCT 31 20:44:39</t>
+  </si>
+  <si>
+    <t>2020 OCT 31 22:42:35</t>
+  </si>
+  <si>
+    <t>134 only #2</t>
+  </si>
+  <si>
+    <t>HCL #4</t>
+  </si>
+  <si>
+    <t>Nominal 4SUBD #2</t>
+  </si>
+  <si>
+    <t>2020 NOV 01 00:40:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=57; </t>
+  </si>
+  <si>
+    <t>2020 NOV 01 02:38:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=57; </t>
+  </si>
+  <si>
+    <t>2020 NOV 01 04:36:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadSolarCalibration; </t>
+  </si>
+  <si>
+    <t>2020 NOV 01 06:34:07</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 Dipole #1</t>
+  </si>
+  <si>
+    <t>2020 NOV 01 08:32:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=58; </t>
+  </si>
+  <si>
+    <t>All Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2020 NOV 01 10:30:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:ARGYRE; &amp;daysideMatch:AEOLIS MENSAE MFF; </t>
+  </si>
+  <si>
+    <t>2020 NOV 01 12:27:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=58; </t>
+  </si>
+  <si>
+    <t>HCL #5</t>
+  </si>
+  <si>
+    <t>136 only #2</t>
+  </si>
+  <si>
+    <t>2020 NOV 01 14:25:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:CLARITAS RISE; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2020 NOV 01 16:23:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=59; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #3</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #11</t>
+  </si>
+  <si>
+    <t>2020 NOV 01 18:21:35</t>
+  </si>
+  <si>
+    <t>2020 NOV 01 20:19:32</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #1</t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>Surface 3SUBD #3</t>
+  </si>
+  <si>
+    <t>2020 NOV 01 22:17:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=60; </t>
+  </si>
+  <si>
+    <t>2020 NOV 02 00:15:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=60; </t>
+  </si>
+  <si>
+    <t>6SUBD CO H2O #2</t>
+  </si>
+  <si>
+    <t>2020 NOV 02 02:13:16</t>
+  </si>
+  <si>
+    <t>2020 NOV 02 04:11:06</t>
+  </si>
+  <si>
+    <t>HDO 01</t>
+  </si>
+  <si>
+    <t>2020 NOV 02 06:08:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=61; </t>
+  </si>
+  <si>
+    <t>2020 NOV 02 08:06:56</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CH4 #2</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #51</t>
+  </si>
+  <si>
+    <t>2020 NOV 02 10:04:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=61; </t>
+  </si>
+  <si>
+    <t>2020 NOV 02 12:02:51</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #12</t>
+  </si>
+  <si>
+    <t>CH4 CO 2SUBD #3</t>
+  </si>
+  <si>
+    <t>2020 NOV 02 14:00:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;ingressMatch:CERAUNIUS FOSSAE; </t>
+  </si>
+  <si>
+    <t>uvisMerged</t>
+  </si>
+  <si>
+    <t>2020 NOV 02 15:58:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=62; </t>
+  </si>
+  <si>
+    <t>2020 NOV 02 17:56:27</t>
+  </si>
+  <si>
+    <t>Ice CH4 2SUBD #1</t>
+  </si>
+  <si>
+    <t>2020 NOV 02 19:54:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;mergedMatch:ELYSIUM CERBERUS PHLEGRA; </t>
+  </si>
+  <si>
+    <t>2020 NOV 02 21:52:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=63; </t>
+  </si>
+  <si>
+    <t>2020 NOV 02 23:50:15</t>
+  </si>
+  <si>
+    <t>uvisGrazing</t>
+  </si>
+  <si>
+    <t>Nominal 6SUBD #2</t>
+  </si>
+  <si>
+    <t>2020 NOV 03 01:48:08</t>
+  </si>
+  <si>
+    <t>2020 NOV 03 03:45:59</t>
+  </si>
+  <si>
+    <t>2020 NOV 03 05:43:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=64; </t>
+  </si>
+  <si>
+    <t>2020 NOV 03 07:41:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.5hrs; &amp;Angle=64; </t>
+  </si>
+  <si>
+    <t>2020 NOV 03 09:39:42</t>
+  </si>
+  <si>
+    <t>2020 NOV 03 11:37:39</t>
+  </si>
+  <si>
+    <t>2020 NOV 03 13:35:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.5hrs; &amp;Angle=65; </t>
+  </si>
+  <si>
+    <t>2020 NOV 03 15:33:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:PAVONIS MONS VOLCANIC CONES SE; &amp;grazingMatch:OLYMPICA FOSSAE-JOVIS THOLUS; </t>
+  </si>
+  <si>
+    <t>2020 NOV 03 17:31:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.4hrs; &amp;Angle=65; </t>
+  </si>
+  <si>
+    <t>2020 NOV 03 19:29:08</t>
+  </si>
+  <si>
+    <t>2020 NOV 03 21:27:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.4hrs; &amp;Angle=66; </t>
+  </si>
+  <si>
+    <t>2020 NOV 03 23:25:00</t>
+  </si>
+  <si>
+    <t>2020 NOV 04 01:22:54</t>
+  </si>
+  <si>
+    <t>H2O CO 2SUBD #1</t>
+  </si>
+  <si>
+    <t>2020 NOV 04 03:20:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.3hrs; &amp;Angle=66; </t>
+  </si>
+  <si>
+    <t>2020 NOV 04 05:18:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.3hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>2020 NOV 04 07:16:28</t>
+  </si>
+  <si>
+    <t>2020 NOV 04 09:14:25</t>
+  </si>
+  <si>
+    <t>Night Limb #2</t>
+  </si>
+  <si>
+    <t>2020 NOV 04 11:12:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.3hrs; &amp;Angle=68; </t>
+  </si>
+  <si>
+    <t>2020 NOV 04 13:10:18</t>
+  </si>
+  <si>
+    <t>Surface 3SUBD 02</t>
+  </si>
+  <si>
+    <t>2020 NOV 04 15:08:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.2hrs; &amp;Angle=68; </t>
+  </si>
+  <si>
+    <t>2020 NOV 04 17:05:58</t>
+  </si>
+  <si>
+    <t>2020 NOV 04 19:03:51</t>
+  </si>
+  <si>
+    <t>Nominal Limb 01</t>
+  </si>
+  <si>
+    <t>2020 NOV 04 21:01:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.2hrs; &amp;Angle=69; </t>
+  </si>
+  <si>
+    <t>2020 NOV 04 22:59:42</t>
+  </si>
+  <si>
+    <t>2020 NOV 05 00:57:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.1hrs; &amp;Angle=69; </t>
+  </si>
+  <si>
+    <t>2020 NOV 05 02:55:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.1hrs; &amp;Angle=70; </t>
+  </si>
+  <si>
+    <t>2020 NOV 05 04:53:17</t>
+  </si>
+  <si>
+    <t>2020 NOV 05 06:51:07</t>
+  </si>
+  <si>
+    <t>2020 NOV 05 08:49:02</t>
+  </si>
+  <si>
+    <t>2020 NOV 05 10:46:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.0hrs; &amp;Angle=71; </t>
+  </si>
+  <si>
+    <t>2020 NOV 05 12:44:55</t>
+  </si>
+  <si>
+    <t>2020 NOV 05 14:42:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2020 NOV 05 16:40:34</t>
+  </si>
+  <si>
+    <t>Limb 2SUBD 07</t>
+  </si>
+  <si>
+    <t>2020 NOV 05 18:38:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.0hrs; &amp;Angle=72; </t>
+  </si>
+  <si>
+    <t>2020 NOV 05 20:36:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.9hrs; &amp;Angle=72; </t>
+  </si>
+  <si>
+    <t>2020 NOV 05 22:34:16</t>
+  </si>
+  <si>
+    <t>2020 NOV 06 00:32:09</t>
+  </si>
+  <si>
     <t>Ice H2O 2SUBD #1</t>
   </si>
   <si>
-    <t>2020 OCT 31 16:48:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=56; </t>
+    <t>2020 NOV 06 02:30:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.9hrs; &amp;Angle=73; </t>
+  </si>
+  <si>
+    <t>2020 NOV 06 04:27:50</t>
+  </si>
+  <si>
+    <t>2020 NOV 06 06:25:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.8hrs; &amp;Angle=73; </t>
+  </si>
+  <si>
+    <t>2020 NOV 06 08:23:31</t>
+  </si>
+  <si>
+    <t>2020 NOV 06 10:21:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.8hrs; &amp;Angle=74; </t>
+  </si>
+  <si>
+    <t>2020 NOV 06 12:19:24</t>
+  </si>
+  <si>
+    <t>2020 NOV 06 14:17:15</t>
+  </si>
+  <si>
+    <t>uvisLimb</t>
+  </si>
+  <si>
+    <t>2020 NOV 06 16:15:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;trueDayLimb; </t>
+  </si>
+  <si>
+    <t>2020 NOV 06 18:12:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.7hrs; &amp;Angle=75; </t>
+  </si>
+  <si>
+    <t>2020 NOV 06 20:10:43</t>
+  </si>
+  <si>
+    <t>2020 NOV 06 22:08:38</t>
+  </si>
+  <si>
+    <t>2020 NOV 07 00:06:31</t>
+  </si>
+  <si>
+    <t>2020 NOV 07 02:04:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.6hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2020 NOV 07 04:02:10</t>
+  </si>
+  <si>
+    <t>2020 NOV 07 05:59:56</t>
+  </si>
+  <si>
+    <t>2020 NOV 07 07:57:44</t>
+  </si>
+  <si>
+    <t>2020 NOV 07 09:55:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.5hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>2020 NOV 07 11:53:35</t>
+  </si>
+  <si>
+    <t>2020 NOV 07 13:51:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;possibleOCM; </t>
+  </si>
+  <si>
+    <t>2020 NOV 07 15:49:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;possibleOCM; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2020 NOV 07 17:46:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.5hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2020 NOV 07 19:44:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.4hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2020 NOV 07 21:42:39</t>
+  </si>
+  <si>
+    <t>2020 NOV 07 23:40:31</t>
+  </si>
+  <si>
+    <t>2020 NOV 08 01:38:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.4hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2020 NOV 08 03:36:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.3hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2020 NOV 08 05:33:49</t>
+  </si>
+  <si>
+    <t>2020 NOV 08 07:31:32</t>
+  </si>
+  <si>
+    <t>2020 NOV 08 09:29:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.3hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2020 NOV 08 11:27:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.2hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2020 NOV 08 13:25:05</t>
+  </si>
+  <si>
+    <t>2020 NOV 08 15:22:48</t>
+  </si>
+  <si>
+    <t>2020 NOV 08 17:20:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.1hrs; &amp;Angle=81; </t>
+  </si>
+  <si>
+    <t>2020 NOV 08 19:18:07</t>
+  </si>
+  <si>
+    <t>2020 NOV 08 21:15:56</t>
+  </si>
+  <si>
+    <t>2020 NOV 08 23:13:43</t>
+  </si>
+  <si>
+    <t>2020 NOV 09 01:11:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.0hrs; &amp;Angle=82; </t>
+  </si>
+  <si>
+    <t>2020 NOV 09 03:09:08</t>
+  </si>
+  <si>
+    <t>Surface Ice 4SUBD 02</t>
+  </si>
+  <si>
+    <t>2020 NOV 09 05:06:43</t>
+  </si>
+  <si>
+    <t>2020 NOV 09 07:04:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.9hrs; &amp;Angle=82; </t>
+  </si>
+  <si>
+    <t>2020 NOV 09 09:01:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.9hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2020 NOV 09 10:59:43</t>
+  </si>
+  <si>
+    <t>2020 NOV 09 12:57:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.8hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2020 NOV 09 14:54:59</t>
+  </si>
+  <si>
+    <t>2020 NOV 09 16:52:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.7hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2020 NOV 09 18:49:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.7hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2020 NOV 09 20:47:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.6hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2020 NOV 09 22:44:57</t>
+  </si>
+  <si>
+    <t>2020 NOV 10 00:42:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.5hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2020 NOV 10 02:39:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.4hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>Surface Ice 3SUBD 01</t>
+  </si>
+  <si>
+    <t>2020 NOV 10 04:37:00</t>
+  </si>
+  <si>
+    <t>2020 NOV 10 06:34:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.3hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2020 NOV 10 08:31:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.2hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2020 NOV 10 10:28:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.1hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2020 NOV 10 12:25:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.0hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 10 14:22:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.9hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 10 16:19:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.7hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 10 18:16:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.4hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 10 20:13:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.2hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 10 22:09:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=3.9hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 11 00:06:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=3.5hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 11 02:02:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=2.8hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>Surface Ice 4SUBD 01</t>
+  </si>
+  <si>
+    <t>2020 NOV 11 03:59:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=1.9hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 11 05:55:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=0.8hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 11 07:51:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=23.6hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 11 09:47:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=22.4hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 11 11:44:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=21.4hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 11 13:40:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=20.6hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 11 15:36:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=20.1hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 11 17:33:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.8hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 11 19:29:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.5hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 11 21:26:28</t>
+  </si>
+  <si>
+    <t>2020 NOV 11 23:22:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.1hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>2020 NOV 12 01:19:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.9hrs; &amp;Angle=86; </t>
+  </si>
+  <si>
+    <t>H2O CO 3SUBD #2</t>
+  </si>
+  <si>
+    <t>2020 NOV 12 03:16:29</t>
+  </si>
+  <si>
+    <t>2020 NOV 12 05:13:38</t>
+  </si>
+  <si>
+    <t>2020 NOV 12 07:10:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.6hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2020 NOV 12 09:07:59</t>
+  </si>
+  <si>
+    <t>2020 NOV 12 11:04:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.5hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2020 NOV 12 13:02:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.4hrs; &amp;Angle=85; </t>
+  </si>
+  <si>
+    <t>2020 NOV 12 14:59:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.3hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2020 NOV 12 16:56:53</t>
+  </si>
+  <si>
+    <t>2020 NOV 12 18:54:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.2hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2020 NOV 12 20:51:55</t>
+  </si>
+  <si>
+    <t>2020 NOV 12 22:49:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.1hrs; &amp;Angle=84; </t>
+  </si>
+  <si>
+    <t>2020 NOV 13 00:46:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.1hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2020 NOV 13 02:44:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.0hrs; &amp;Angle=83; </t>
+  </si>
+  <si>
+    <t>2020 NOV 13 04:41:49</t>
+  </si>
+  <si>
+    <t>2020 NOV 13 06:39:33</t>
+  </si>
+  <si>
+    <t>2020 NOV 13 08:37:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.9hrs; &amp;Angle=82; </t>
+  </si>
+  <si>
+    <t>2020 NOV 13 10:34:44</t>
+  </si>
+  <si>
+    <t>2020 NOV 13 12:32:15</t>
+  </si>
+  <si>
+    <t>2020 NOV 13 14:29:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.8hrs; &amp;Angle=82; </t>
+  </si>
+  <si>
+    <t>2020 NOV 13 16:27:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.8hrs; &amp;Angle=81; </t>
+  </si>
+  <si>
+    <t>2020 NOV 13 18:25:27</t>
+  </si>
+  <si>
+    <t>2020 NOV 13 20:23:14</t>
+  </si>
+  <si>
+    <t>2020 NOV 13 22:20:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=81; </t>
+  </si>
+  <si>
+    <t>2020 NOV 14 00:18:31</t>
+  </si>
+  <si>
+    <t>2020 NOV 14 02:16:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2020 NOV 14 04:14:01</t>
+  </si>
+  <si>
+    <t>2020 NOV 14 06:11:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2020 NOV 14 08:09:44</t>
+  </si>
+  <si>
+    <t>2020 NOV 14 10:07:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2020 NOV 14 12:05:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.5hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2020 NOV 14 14:02:51</t>
+  </si>
+  <si>
+    <t>2020 NOV 14 16:00:41</t>
+  </si>
+  <si>
+    <t>2020 NOV 14 17:58:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.5hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2020 NOV 14 19:56:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.4hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2020 NOV 14 21:54:15</t>
+  </si>
+  <si>
+    <t>2020 NOV 14 23:51:58</t>
+  </si>
+  <si>
+    <t>2020 NOV 15 01:49:43</t>
+  </si>
+  <si>
+    <t>Nominal 3SUBD 01</t>
+  </si>
+  <si>
+    <t>2020 NOV 15 03:47:34</t>
+  </si>
+  <si>
+    <t>2020 NOV 15 05:45:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.3hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>2020 NOV 15 07:43:24</t>
+  </si>
+  <si>
+    <t>2020 NOV 15 09:41:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.3hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2020 NOV 15 11:38:58</t>
+  </si>
+  <si>
+    <t>2020 NOV 15 13:36:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.2hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2020 NOV 15 15:34:36</t>
+  </si>
+  <si>
+    <t>2020 NOV 15 17:32:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.2hrs; &amp;Angle=75; </t>
+  </si>
+  <si>
+    <t>2020 NOV 15 19:30:24</t>
+  </si>
+  <si>
+    <t>2020 NOV 15 21:28:17</t>
+  </si>
+  <si>
+    <t>2020 NOV 15 23:26:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=75; </t>
+  </si>
+  <si>
+    <t>2020 NOV 16 01:23:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=74; </t>
+  </si>
+  <si>
+    <t>2020 NOV 16 03:21:42</t>
+  </si>
+  <si>
+    <t>2020 NOV 16 05:19:38</t>
+  </si>
+  <si>
+    <t>2020 NOV 16 07:17:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=73; </t>
+  </si>
+  <si>
+    <t>2020 NOV 16 09:15:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.0hrs; &amp;Angle=73; </t>
+  </si>
+  <si>
+    <t>2020 NOV 16 11:13:15</t>
+  </si>
+  <si>
+    <t>2020 NOV 16 13:11:02</t>
+  </si>
+  <si>
+    <t>2020 NOV 16 15:08:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.0hrs; &amp;Angle=72; </t>
+  </si>
+  <si>
+    <t>2020 NOV 16 17:06:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.9hrs; &amp;Angle=72; </t>
+  </si>
+  <si>
+    <t>2020 NOV 16 19:04:45</t>
+  </si>
+  <si>
+    <t>2020 NOV 16 21:02:39</t>
+  </si>
+  <si>
+    <t>2020 NOV 16 23:00:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.9hrs; &amp;Angle=71; </t>
+  </si>
+  <si>
+    <t>2020 NOV 17 00:58:19</t>
+  </si>
+  <si>
+    <t>2020 NOV 17 02:56:10</t>
+  </si>
+  <si>
+    <t>2020 NOV 17 04:54:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.8hrs; &amp;Angle=71; </t>
+  </si>
+  <si>
+    <t>2020 NOV 17 06:52:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.8hrs; &amp;Angle=70; </t>
+  </si>
+  <si>
+    <t>2020 NOV 17 08:49:57</t>
+  </si>
+  <si>
+    <t>2020 NOV 17 10:47:49</t>
+  </si>
+  <si>
+    <t>HDO H2O 2SUBD 02</t>
+  </si>
+  <si>
+    <t>2020 NOV 17 12:45:37</t>
+  </si>
+  <si>
+    <t>2020 NOV 17 14:43:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.7hrs; &amp;Angle=69; </t>
+  </si>
+  <si>
+    <t>2020 NOV 17 16:41:22</t>
+  </si>
+  <si>
+    <t>2020 NOV 17 18:39:18</t>
+  </si>
+  <si>
+    <t>2020 NOV 17 20:37:13</t>
+  </si>
+  <si>
+    <t>2020 NOV 17 22:35:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.7hrs; &amp;Angle=68; </t>
+  </si>
+  <si>
+    <t>2020 NOV 18 00:32:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.6hrs; &amp;Angle=68; </t>
+  </si>
+  <si>
+    <t>2020 NOV 18 02:30:46</t>
+  </si>
+  <si>
+    <t>2020 NOV 18 04:28:40</t>
+  </si>
+  <si>
+    <t>2020 NOV 18 06:26:37</t>
+  </si>
+  <si>
+    <t>2020 NOV 18 08:24:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.6hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>2020 NOV 18 10:22:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>2020 NOV 18 12:20:17</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #48</t>
+  </si>
+  <si>
+    <t>2020 NOV 18 14:18:07</t>
+  </si>
+  <si>
+    <t>2020 NOV 18 16:16:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=66; </t>
+  </si>
+  <si>
+    <t>2020 NOV 18 18:13:57</t>
+  </si>
+  <si>
+    <t>2020 NOV 18 20:11:54</t>
+  </si>
+  <si>
+    <t>2020 NOV 18 22:09:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=65; </t>
+  </si>
+  <si>
+    <t>2020 NOV 19 00:07:40</t>
+  </si>
+  <si>
+    <t>2020 NOV 19 02:05:30</t>
+  </si>
+  <si>
+    <t>2020 NOV 19 04:03:24</t>
+  </si>
+  <si>
+    <t>2020 NOV 19 06:01:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=64; </t>
+  </si>
+  <si>
+    <t>2020 NOV 19 07:59:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=64; </t>
+  </si>
+  <si>
+    <t>2020 NOV 19 09:57:13</t>
+  </si>
+  <si>
+    <t>2020 NOV 19 11:55:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=63; </t>
+  </si>
+  <si>
+    <t>2020 NOV 19 13:52:54</t>
+  </si>
+  <si>
+    <t>Nominal 4SUBD 01</t>
+  </si>
+  <si>
+    <t>2020 NOV 19 15:50:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:OLYMPUS MONS; </t>
+  </si>
+  <si>
+    <t>2020 NOV 19 17:48:42</t>
+  </si>
+  <si>
+    <t>2020 NOV 19 19:46:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=62; </t>
+  </si>
+  <si>
+    <t>2020 NOV 19 21:44:34</t>
+  </si>
+  <si>
+    <t>2020 NOV 19 23:42:27</t>
+  </si>
+  <si>
+    <t>2020 NOV 20 01:40:17</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO2 #1</t>
+  </si>
+  <si>
+    <t>HCL #8</t>
+  </si>
+  <si>
+    <t>2020 NOV 20 03:38:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=61; </t>
+  </si>
+  <si>
+    <t>2020 NOV 20 05:36:05</t>
+  </si>
+  <si>
+    <t>All Fullscan Slow #2</t>
+  </si>
+  <si>
+    <t>6SUBD CH4 H2O #1</t>
+  </si>
+  <si>
+    <t>2020 NOV 20 07:34:03</t>
+  </si>
+  <si>
+    <t>CO2 100km #1</t>
+  </si>
+  <si>
+    <t>CH4 CO 2SUBD #4</t>
+  </si>
+  <si>
+    <t>2020 NOV 20 09:31:59</t>
+  </si>
+  <si>
+    <t>2020 NOV 20 11:29:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=60; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #10</t>
+  </si>
+  <si>
+    <t>2020 NOV 20 13:27:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;ingressMatch:CLARITAS RISE; </t>
+  </si>
+  <si>
+    <t>2020 NOV 20 15:25:35</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #2</t>
+  </si>
+  <si>
+    <t>2020 NOV 20 17:23:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=60; </t>
+  </si>
+  <si>
+    <t>2020 NOV 20 19:21:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=59; </t>
+  </si>
+  <si>
+    <t>2020 NOV 20 21:19:23</t>
+  </si>
+  <si>
+    <t>133 only #2</t>
+  </si>
+  <si>
+    <t>2020 NOV 20 23:17:17</t>
+  </si>
+  <si>
+    <t>2020 NOV 21 01:15:09</t>
+  </si>
+  <si>
+    <t>2020 NOV 21 03:13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=58; </t>
+  </si>
+  <si>
+    <t>HCL #11</t>
+  </si>
+  <si>
+    <t>2020 NOV 21 05:10:55</t>
+  </si>
+  <si>
+    <t>CH4 H2O 2SUBD 02</t>
+  </si>
+  <si>
+    <t>2020 NOV 21 07:08:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:AEOLIS MENSAE MFF; </t>
+  </si>
+  <si>
+    <t>Dust H2O 01</t>
+  </si>
+  <si>
+    <t>2020 NOV 21 09:06:49</t>
+  </si>
+  <si>
+    <t>2020 NOV 21 11:04:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=57; </t>
+  </si>
+  <si>
+    <t>2020 NOV 21 13:02:35</t>
+  </si>
+  <si>
+    <t>2020 NOV 21 15:00:26</t>
+  </si>
+  <si>
+    <t>2020 NOV 21 16:58:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:MERIDIANI SULPHATES; </t>
+  </si>
+  <si>
+    <t>2020 NOV 21 18:56:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=56; </t>
+  </si>
+  <si>
+    <t>2020 NOV 21 20:54:14</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO2 #2</t>
+  </si>
+  <si>
+    <t>2020 NOV 21 22:52:09</t>
+  </si>
+  <si>
+    <t>2020 NOV 22 00:50:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.7hrs; &amp;Angle=55; </t>
+  </si>
+  <si>
+    <t>2020 NOV 22 02:47:53</t>
+  </si>
+  <si>
+    <t>2020 NOV 22 04:45:47</t>
   </si>
   <si>
     <t>6SUBD Nominal #1</t>
   </si>
   <si>
-    <t>HCL #10</t>
-  </si>
-  <si>
-    <t>2020 OCT 31 18:46:42</t>
-  </si>
-  <si>
-    <t>2020 OCT 31 20:44:39</t>
-  </si>
-  <si>
-    <t>2020 OCT 31 22:42:35</t>
+    <t>2020 NOV 22 06:43:44</t>
+  </si>
+  <si>
+    <t>2020 NOV 22 08:41:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.7hrs; &amp;Angle=54; </t>
+  </si>
+  <si>
+    <t>LNO Occultation Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2020 NOV 22 10:39:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:ACIDALIA MUD VOLCANOES NE; </t>
+  </si>
+  <si>
+    <t>2020 NOV 22 12:37:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=54; </t>
+  </si>
+  <si>
+    <t>2020 NOV 22 14:35:21</t>
+  </si>
+  <si>
+    <t>2020 NOV 22 16:33:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=53; </t>
+  </si>
+  <si>
+    <t>2020 NOV 22 18:31:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2020 NOV 22 20:29:07</t>
+  </si>
+  <si>
+    <t>2020 NOV 22 22:27:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.5hrs; &amp;Angle=53; </t>
+  </si>
+  <si>
+    <t>2020 NOV 23 00:24:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2020 NOV 23 02:22:49</t>
+  </si>
+  <si>
+    <t>2020 NOV 23 04:20:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.5hrs; &amp;Angle=52; </t>
+  </si>
+  <si>
+    <t>2020 NOV 23 06:18:37</t>
+  </si>
+  <si>
+    <t>132 only #2</t>
+  </si>
+  <si>
+    <t>2020 NOV 23 08:16:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
+  </si>
+  <si>
+    <t>2020 NOV 23 10:14:32</t>
+  </si>
+  <si>
+    <t>2020 NOV 23 12:12:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:NILI FOSSAE; </t>
+  </si>
+  <si>
+    <t>2020 NOV 23 14:10:17</t>
+  </si>
+  <si>
+    <t>2020 NOV 23 16:08:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.4hrs; &amp;Angle=50; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #1</t>
+  </si>
+  <si>
+    <t>2020 NOV 23 18:06:05</t>
+  </si>
+  <si>
+    <t>6SUBD CO H2O #1</t>
+  </si>
+  <si>
+    <t>2020 NOV 23 20:04:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=50; </t>
+  </si>
+  <si>
+    <t>2020 NOV 23 22:01:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:COPRATES RISE; </t>
+  </si>
+  <si>
+    <t>2020 NOV 23 23:59:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=49; </t>
+  </si>
+  <si>
+    <t>2020 NOV 24 01:57:47</t>
+  </si>
+  <si>
+    <t>2020 NOV 24 03:55:38</t>
+  </si>
+  <si>
+    <t>2020 NOV 24 05:53:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=48; </t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #3</t>
+  </si>
+  <si>
+    <t>2020 NOV 24 07:51:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.2hrs; &amp;Angle=48; </t>
+  </si>
+  <si>
+    <t>2020 NOV 24 09:49:28</t>
+  </si>
+  <si>
+    <t>2020 NOV 24 11:47:24</t>
+  </si>
+  <si>
+    <t>2020 NOV 24 13:45:16</t>
+  </si>
+  <si>
+    <t>H2O Fullscan #2</t>
+  </si>
+  <si>
+    <t>2020 NOV 24 15:43:08</t>
+  </si>
+  <si>
+    <t>2020 NOV 24 17:41:02</t>
+  </si>
+  <si>
+    <t>2020 NOV 24 19:38:58</t>
+  </si>
+  <si>
+    <t>2020 NOV 24 21:36:55</t>
+  </si>
+  <si>
+    <t>2020 NOV 24 23:34:51</t>
+  </si>
+  <si>
+    <t>2020 NOV 25 01:32:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.1hrs; &amp;Angle=46; </t>
+  </si>
+  <si>
+    <t>2020 NOV 25 03:30:36</t>
+  </si>
+  <si>
+    <t>2020 NOV 25 05:28:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=45; </t>
+  </si>
+  <si>
+    <t>2020 NOV 25 07:26:26</t>
+  </si>
+  <si>
+    <t>2020 NOV 25 09:24:24</t>
+  </si>
+  <si>
+    <t>CO Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2020 NOV 25 11:22:21</t>
+  </si>
+  <si>
+    <t>2020 NOV 25 13:20:14</t>
+  </si>
+  <si>
+    <t>2020 NOV 25 15:18:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=44; </t>
+  </si>
+  <si>
+    <t>2020 NOV 25 17:15:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.9hrs; &amp;Angle=44; </t>
+  </si>
+  <si>
+    <t>2020 NOV 25 19:13:55</t>
+  </si>
+  <si>
+    <t>2020 NOV 25 21:11:52</t>
+  </si>
+  <si>
+    <t>2020 NOV 25 23:09:48</t>
+  </si>
+  <si>
+    <t>2020 NOV 26 01:07:43</t>
+  </si>
+  <si>
+    <t>2020 NOV 26 03:05:36</t>
   </si>
   <si>
     <t>6SUBD Nom CH4 #1</t>
   </si>
   <si>
-    <t>6SUBD Nom CO #2</t>
-  </si>
-  <si>
-    <t>CH4 CO 2SUBD #3</t>
-  </si>
-  <si>
-    <t>2020 NOV 01 00:40:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=57; </t>
-  </si>
-  <si>
-    <t>2020 NOV 01 02:38:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=57; </t>
-  </si>
-  <si>
-    <t>2020 NOV 01 04:36:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadSolarCalibration; </t>
-  </si>
-  <si>
-    <t>2020 NOV 01 06:34:07</t>
-  </si>
-  <si>
-    <t>LNO Occultation Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>HCL #8</t>
-  </si>
-  <si>
-    <t>Ice CH4 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2020 NOV 01 08:32:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=58; </t>
-  </si>
-  <si>
-    <t>134 only #2</t>
-  </si>
-  <si>
-    <t>6SUBD CH4 #1</t>
-  </si>
-  <si>
-    <t>2020 NOV 01 10:30:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:ARGYRE; &amp;daysideMatch:AEOLIS MENSAE MFF; </t>
-  </si>
-  <si>
-    <t>2020 NOV 01 12:27:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=58; </t>
-  </si>
-  <si>
-    <t>133 only #2</t>
-  </si>
-  <si>
-    <t>136 only #2</t>
-  </si>
-  <si>
-    <t>Nominal 4SUBD 01</t>
-  </si>
-  <si>
-    <t>2020 NOV 01 14:25:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:CLARITAS RISE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2020 NOV 01 16:23:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=59; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #12</t>
+    <t>2020 NOV 26 05:03:28</t>
+  </si>
+  <si>
+    <t>2020 NOV 26 07:01:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2020 NOV 26 08:59:21</t>
+  </si>
+  <si>
+    <t>2020 NOV 26 10:57:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.8hrs; &amp;Angle=41; </t>
+  </si>
+  <si>
+    <t>2020 NOV 26 12:55:14</t>
+  </si>
+  <si>
+    <t>2020 NOV 26 14:53:06</t>
+  </si>
+  <si>
+    <t>2020 NOV 26 16:50:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.7hrs; &amp;Angle=41; </t>
+  </si>
+  <si>
+    <t>2020 NOV 26 18:48:52</t>
+  </si>
+  <si>
+    <t>2020 NOV 26 20:46:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.7hrs; &amp;Angle=40; </t>
+  </si>
+  <si>
+    <t>2020 NOV 26 22:44:46</t>
+  </si>
+  <si>
+    <t>2020 NOV 27 00:42:41</t>
+  </si>
+  <si>
+    <t>2020 NOV 27 02:40:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:PAVONIS MONS; &amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; </t>
+  </si>
+  <si>
+    <t>2020 NOV 27 04:38:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.6hrs; &amp;Angle=39; </t>
+  </si>
+  <si>
+    <t>2020 NOV 27 06:36:20</t>
+  </si>
+  <si>
+    <t>2020 NOV 27 08:34:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERBERUS FOSSAE; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2020 NOV 27 10:32:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2020 NOV 27 12:30:11</t>
+  </si>
+  <si>
+    <t>2020 NOV 27 14:28:05</t>
+  </si>
+  <si>
+    <t>2020 NOV 27 16:25:56</t>
+  </si>
+  <si>
+    <t>2020 NOV 27 18:23:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.5hrs; &amp;Angle=37; </t>
+  </si>
+  <si>
+    <t>2020 NOV 27 20:21:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS; </t>
+  </si>
+  <si>
+    <t>2020 NOV 27 22:19:43</t>
+  </si>
+  <si>
+    <t>2020 NOV 28 00:17:40</t>
+  </si>
+  <si>
+    <t>2020 NOV 28 02:15:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS FOSSAE; </t>
   </si>
   <si>
     <t>129 only #2</t>
   </si>
   <si>
-    <t>2020 NOV 01 18:21:35</t>
-  </si>
-  <si>
-    <t>2020 NOV 01 20:19:32</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #48</t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #3</t>
-  </si>
-  <si>
-    <t>Surface 3SUBD #3</t>
-  </si>
-  <si>
-    <t>2020 NOV 01 22:17:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=60; </t>
-  </si>
-  <si>
-    <t>2020 NOV 02 00:15:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=60; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #1</t>
-  </si>
-  <si>
-    <t>All Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>2020 NOV 02 02:13:16</t>
-  </si>
-  <si>
-    <t>2020 NOV 02 04:11:06</t>
-  </si>
-  <si>
-    <t>CO2 Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #45</t>
-  </si>
-  <si>
-    <t>H2O 2SUBD 01</t>
-  </si>
-  <si>
-    <t>2020 NOV 02 06:08:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=61; </t>
-  </si>
-  <si>
-    <t>2020 NOV 02 08:06:56</t>
-  </si>
-  <si>
-    <t>6SUBD CO H2O #1</t>
-  </si>
-  <si>
-    <t>2020 NOV 02 10:04:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=61; </t>
-  </si>
-  <si>
-    <t>2020 NOV 02 12:02:51</t>
-  </si>
-  <si>
-    <t>Nominal 3SUBD 01</t>
-  </si>
-  <si>
-    <t>2020 NOV 02 14:00:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;ingressMatch:CERAUNIUS FOSSAE; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #51</t>
-  </si>
-  <si>
-    <t>uvisMerged</t>
-  </si>
-  <si>
-    <t>2020 NOV 02 15:58:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=62; </t>
-  </si>
-  <si>
-    <t>2020 NOV 02 17:56:27</t>
-  </si>
-  <si>
-    <t>Nominal 6SUBD 01</t>
-  </si>
-  <si>
-    <t>2020 NOV 02 19:54:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;mergedMatch:ELYSIUM CERBERUS PHLEGRA; </t>
-  </si>
-  <si>
-    <t>2020 NOV 02 21:52:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=63; </t>
-  </si>
-  <si>
-    <t>2020 NOV 02 23:50:15</t>
-  </si>
-  <si>
-    <t>2020 NOV 03 01:48:08</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #42</t>
-  </si>
-  <si>
-    <t>uvisGrazing</t>
-  </si>
-  <si>
-    <t>2020 NOV 03 03:45:59</t>
-  </si>
-  <si>
-    <t>2020 NOV 03 05:43:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=64; </t>
-  </si>
-  <si>
-    <t>2020 NOV 03 07:41:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.5hrs; &amp;Angle=64; </t>
-  </si>
-  <si>
-    <t>2020 NOV 03 09:39:42</t>
-  </si>
-  <si>
-    <t>2020 NOV 03 11:37:39</t>
-  </si>
-  <si>
-    <t>2020 NOV 03 13:35:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.5hrs; &amp;Angle=65; </t>
-  </si>
-  <si>
-    <t>CH4 CO 2SUBD #4</t>
-  </si>
-  <si>
-    <t>2020 NOV 03 15:33:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;grazingMatch:PAVONIS MONS VOLCANIC CONES SE; &amp;grazingMatch:OLYMPICA FOSSAE-JOVIS THOLUS; </t>
-  </si>
-  <si>
-    <t>2020 NOV 03 17:31:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.4hrs; &amp;Angle=65; </t>
-  </si>
-  <si>
-    <t>2020 NOV 03 19:29:08</t>
-  </si>
-  <si>
-    <t>2020 NOV 03 21:27:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.4hrs; &amp;Angle=66; </t>
-  </si>
-  <si>
-    <t>2020 NOV 03 23:25:00</t>
-  </si>
-  <si>
-    <t>2020 NOV 04 01:22:54</t>
-  </si>
-  <si>
-    <t>2020 NOV 04 03:20:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.3hrs; &amp;Angle=66; </t>
-  </si>
-  <si>
-    <t>2020 NOV 04 05:18:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.3hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2020 NOV 04 07:16:28</t>
-  </si>
-  <si>
-    <t>2020 NOV 04 09:14:25</t>
-  </si>
-  <si>
-    <t>Night Limb #2</t>
-  </si>
-  <si>
-    <t>2020 NOV 04 11:12:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.3hrs; &amp;Angle=68; </t>
-  </si>
-  <si>
-    <t>2020 NOV 04 13:10:18</t>
-  </si>
-  <si>
-    <t>Surface 3SUBD 02</t>
-  </si>
-  <si>
-    <t>2020 NOV 04 15:08:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.2hrs; &amp;Angle=68; </t>
-  </si>
-  <si>
-    <t>2020 NOV 04 17:05:58</t>
-  </si>
-  <si>
-    <t>2020 NOV 04 19:03:51</t>
-  </si>
-  <si>
-    <t>Limb 2SUBD 07</t>
-  </si>
-  <si>
-    <t>2020 NOV 04 21:01:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.2hrs; &amp;Angle=69; </t>
-  </si>
-  <si>
-    <t>2020 NOV 04 22:59:42</t>
-  </si>
-  <si>
-    <t>2020 NOV 05 00:57:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.1hrs; &amp;Angle=69; </t>
-  </si>
-  <si>
-    <t>2020 NOV 05 02:55:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.1hrs; &amp;Angle=70; </t>
-  </si>
-  <si>
-    <t>2020 NOV 05 04:53:17</t>
-  </si>
-  <si>
-    <t>2020 NOV 05 06:51:07</t>
-  </si>
-  <si>
-    <t>2020 NOV 05 08:49:02</t>
-  </si>
-  <si>
-    <t>2020 NOV 05 10:46:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.0hrs; &amp;Angle=71; </t>
-  </si>
-  <si>
-    <t>2020 NOV 05 12:44:55</t>
-  </si>
-  <si>
-    <t>2020 NOV 05 14:42:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2020 NOV 05 16:40:34</t>
-  </si>
-  <si>
-    <t>2020 NOV 05 18:38:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.0hrs; &amp;Angle=72; </t>
-  </si>
-  <si>
-    <t>2020 NOV 05 20:36:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.9hrs; &amp;Angle=72; </t>
-  </si>
-  <si>
-    <t>2020 NOV 05 22:34:16</t>
-  </si>
-  <si>
-    <t>2020 NOV 06 00:32:09</t>
-  </si>
-  <si>
-    <t>Surface Ice 6SUBD 01</t>
-  </si>
-  <si>
-    <t>2020 NOV 06 02:30:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.9hrs; &amp;Angle=73; </t>
-  </si>
-  <si>
-    <t>2020 NOV 06 04:27:50</t>
-  </si>
-  <si>
-    <t>2020 NOV 06 06:25:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.8hrs; &amp;Angle=73; </t>
-  </si>
-  <si>
-    <t>2020 NOV 06 08:23:31</t>
-  </si>
-  <si>
-    <t>2020 NOV 06 10:21:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.8hrs; &amp;Angle=74; </t>
-  </si>
-  <si>
-    <t>2020 NOV 06 12:19:24</t>
-  </si>
-  <si>
-    <t>2020 NOV 06 14:17:15</t>
-  </si>
-  <si>
-    <t>uvisLimb</t>
-  </si>
-  <si>
-    <t>2020 NOV 06 16:15:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;trueDayLimb; </t>
-  </si>
-  <si>
-    <t>2020 NOV 06 18:12:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.7hrs; &amp;Angle=75; </t>
-  </si>
-  <si>
-    <t>2020 NOV 06 20:10:43</t>
-  </si>
-  <si>
-    <t>2020 NOV 06 22:08:38</t>
-  </si>
-  <si>
-    <t>2020 NOV 07 00:06:31</t>
-  </si>
-  <si>
-    <t>2020 NOV 07 02:04:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.6hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2020 NOV 07 04:02:10</t>
-  </si>
-  <si>
-    <t>2020 NOV 07 05:59:56</t>
-  </si>
-  <si>
-    <t>2020 NOV 07 07:57:44</t>
-  </si>
-  <si>
-    <t>2020 NOV 07 09:55:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.5hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>2020 NOV 07 11:53:35</t>
-  </si>
-  <si>
-    <t>2020 NOV 07 13:51:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;possibleOCM; </t>
-  </si>
-  <si>
-    <t>2020 NOV 07 15:49:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;possibleOCM; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2020 NOV 07 17:46:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.5hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2020 NOV 07 19:44:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.4hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2020 NOV 07 21:42:39</t>
-  </si>
-  <si>
-    <t>2020 NOV 07 23:40:31</t>
-  </si>
-  <si>
-    <t>2020 NOV 08 01:38:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.4hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2020 NOV 08 03:36:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.3hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>H2O CO 3SUBD #2</t>
-  </si>
-  <si>
-    <t>2020 NOV 08 05:33:49</t>
-  </si>
-  <si>
-    <t>2020 NOV 08 07:31:32</t>
-  </si>
-  <si>
-    <t>2020 NOV 08 09:29:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.3hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2020 NOV 08 11:27:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.2hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2020 NOV 08 13:25:05</t>
-  </si>
-  <si>
-    <t>2020 NOV 08 15:22:48</t>
-  </si>
-  <si>
-    <t>2020 NOV 08 17:20:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.1hrs; &amp;Angle=81; </t>
-  </si>
-  <si>
-    <t>2020 NOV 08 19:18:07</t>
-  </si>
-  <si>
-    <t>2020 NOV 08 21:15:56</t>
-  </si>
-  <si>
-    <t>2020 NOV 08 23:13:43</t>
-  </si>
-  <si>
-    <t>2020 NOV 09 01:11:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.0hrs; &amp;Angle=82; </t>
-  </si>
-  <si>
-    <t>2020 NOV 09 03:09:08</t>
-  </si>
-  <si>
-    <t>Surface Ice 4SUBD 02</t>
-  </si>
-  <si>
-    <t>2020 NOV 09 05:06:43</t>
-  </si>
-  <si>
-    <t>2020 NOV 09 07:04:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.9hrs; &amp;Angle=82; </t>
-  </si>
-  <si>
-    <t>2020 NOV 09 09:01:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.9hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2020 NOV 09 10:59:43</t>
-  </si>
-  <si>
-    <t>2020 NOV 09 12:57:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.8hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2020 NOV 09 14:54:59</t>
-  </si>
-  <si>
-    <t>2020 NOV 09 16:52:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.7hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2020 NOV 09 18:49:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.7hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2020 NOV 09 20:47:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.6hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2020 NOV 09 22:44:57</t>
-  </si>
-  <si>
-    <t>Nominal Limb 01</t>
-  </si>
-  <si>
-    <t>2020 NOV 10 00:42:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.5hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2020 NOV 10 02:39:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.4hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>HDO H2O 2SUBD 02</t>
-  </si>
-  <si>
-    <t>2020 NOV 10 04:37:00</t>
-  </si>
-  <si>
-    <t>2020 NOV 10 06:34:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.3hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2020 NOV 10 08:31:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.2hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2020 NOV 10 10:28:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.1hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2020 NOV 10 12:25:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.0hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 10 14:22:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.9hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 10 16:19:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.7hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 10 18:16:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.4hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 10 20:13:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.2hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 10 22:09:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=3.9hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 11 00:06:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=3.5hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 11 02:02:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=2.8hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 11 03:59:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=1.9hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 11 05:55:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=0.8hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 11 07:51:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=23.6hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 11 09:47:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=22.4hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 11 11:44:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=21.4hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 11 13:40:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=20.6hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 11 15:36:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=20.1hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 11 17:33:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.8hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 11 19:29:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.5hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 11 21:26:28</t>
-  </si>
-  <si>
-    <t>2020 NOV 11 23:22:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.1hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>2020 NOV 12 01:19:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.9hrs; &amp;Angle=86; </t>
-  </si>
-  <si>
-    <t>Nominal 6SUBD #2</t>
-  </si>
-  <si>
-    <t>2020 NOV 12 03:16:29</t>
-  </si>
-  <si>
-    <t>2020 NOV 12 05:13:38</t>
-  </si>
-  <si>
-    <t>2020 NOV 12 07:10:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.6hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2020 NOV 12 09:07:59</t>
-  </si>
-  <si>
-    <t>2020 NOV 12 11:04:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.5hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2020 NOV 12 13:02:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.4hrs; &amp;Angle=85; </t>
-  </si>
-  <si>
-    <t>2020 NOV 12 14:59:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.3hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2020 NOV 12 16:56:53</t>
-  </si>
-  <si>
-    <t>2020 NOV 12 18:54:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.2hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2020 NOV 12 20:51:55</t>
-  </si>
-  <si>
-    <t>2020 NOV 12 22:49:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.1hrs; &amp;Angle=84; </t>
-  </si>
-  <si>
-    <t>2020 NOV 13 00:46:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.1hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2020 NOV 13 02:44:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.0hrs; &amp;Angle=83; </t>
-  </si>
-  <si>
-    <t>2020 NOV 13 04:41:49</t>
-  </si>
-  <si>
-    <t>2020 NOV 13 06:39:33</t>
-  </si>
-  <si>
-    <t>2020 NOV 13 08:37:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.9hrs; &amp;Angle=82; </t>
-  </si>
-  <si>
-    <t>2020 NOV 13 10:34:44</t>
-  </si>
-  <si>
-    <t>2020 NOV 13 12:32:15</t>
-  </si>
-  <si>
-    <t>2020 NOV 13 14:29:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.8hrs; &amp;Angle=82; </t>
-  </si>
-  <si>
-    <t>2020 NOV 13 16:27:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.8hrs; &amp;Angle=81; </t>
-  </si>
-  <si>
-    <t>2020 NOV 13 18:25:27</t>
-  </si>
-  <si>
-    <t>2020 NOV 13 20:23:14</t>
-  </si>
-  <si>
-    <t>2020 NOV 13 22:20:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=81; </t>
-  </si>
-  <si>
-    <t>2020 NOV 14 00:18:31</t>
-  </si>
-  <si>
-    <t>2020 NOV 14 02:16:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>Surface Ice 4SUBD 01</t>
-  </si>
-  <si>
-    <t>2020 NOV 14 04:14:01</t>
-  </si>
-  <si>
-    <t>2020 NOV 14 06:11:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2020 NOV 14 08:09:44</t>
-  </si>
-  <si>
-    <t>2020 NOV 14 10:07:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2020 NOV 14 12:05:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.5hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2020 NOV 14 14:02:51</t>
-  </si>
-  <si>
-    <t>2020 NOV 14 16:00:41</t>
-  </si>
-  <si>
-    <t>2020 NOV 14 17:58:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.5hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2020 NOV 14 19:56:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.4hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2020 NOV 14 21:54:15</t>
-  </si>
-  <si>
-    <t>2020 NOV 14 23:51:58</t>
-  </si>
-  <si>
-    <t>2020 NOV 15 01:49:43</t>
-  </si>
-  <si>
-    <t>2020 NOV 15 03:47:34</t>
-  </si>
-  <si>
-    <t>2020 NOV 15 05:45:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.3hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>2020 NOV 15 07:43:24</t>
-  </si>
-  <si>
-    <t>2020 NOV 15 09:41:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.3hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2020 NOV 15 11:38:58</t>
-  </si>
-  <si>
-    <t>2020 NOV 15 13:36:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.2hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2020 NOV 15 15:34:36</t>
-  </si>
-  <si>
-    <t>2020 NOV 15 17:32:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.2hrs; &amp;Angle=75; </t>
-  </si>
-  <si>
-    <t>2020 NOV 15 19:30:24</t>
-  </si>
-  <si>
-    <t>2020 NOV 15 21:28:17</t>
-  </si>
-  <si>
-    <t>2020 NOV 15 23:26:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=75; </t>
-  </si>
-  <si>
-    <t>2020 NOV 16 01:23:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=74; </t>
-  </si>
-  <si>
-    <t>2020 NOV 16 03:21:42</t>
-  </si>
-  <si>
-    <t>2020 NOV 16 05:19:38</t>
-  </si>
-  <si>
-    <t>2020 NOV 16 07:17:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=73; </t>
-  </si>
-  <si>
-    <t>2020 NOV 16 09:15:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.0hrs; &amp;Angle=73; </t>
-  </si>
-  <si>
-    <t>2020 NOV 16 11:13:15</t>
-  </si>
-  <si>
-    <t>2020 NOV 16 13:11:02</t>
-  </si>
-  <si>
-    <t>2020 NOV 16 15:08:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.0hrs; &amp;Angle=72; </t>
-  </si>
-  <si>
-    <t>2020 NOV 16 17:06:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.9hrs; &amp;Angle=72; </t>
-  </si>
-  <si>
-    <t>2020 NOV 16 19:04:45</t>
-  </si>
-  <si>
-    <t>2020 NOV 16 21:02:39</t>
-  </si>
-  <si>
-    <t>2020 NOV 16 23:00:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.9hrs; &amp;Angle=71; </t>
-  </si>
-  <si>
-    <t>2020 NOV 17 00:58:19</t>
-  </si>
-  <si>
-    <t>2020 NOV 17 02:56:10</t>
-  </si>
-  <si>
-    <t>2020 NOV 17 04:54:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.8hrs; &amp;Angle=71; </t>
-  </si>
-  <si>
-    <t>2020 NOV 17 06:52:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.8hrs; &amp;Angle=70; </t>
-  </si>
-  <si>
-    <t>2020 NOV 17 08:49:57</t>
-  </si>
-  <si>
-    <t>2020 NOV 17 10:47:49</t>
-  </si>
-  <si>
-    <t>2020 NOV 17 12:45:37</t>
-  </si>
-  <si>
-    <t>2020 NOV 17 14:43:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.7hrs; &amp;Angle=69; </t>
-  </si>
-  <si>
-    <t>2020 NOV 17 16:41:22</t>
-  </si>
-  <si>
-    <t>2020 NOV 17 18:39:18</t>
-  </si>
-  <si>
-    <t>2020 NOV 17 20:37:13</t>
-  </si>
-  <si>
-    <t>2020 NOV 17 22:35:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.7hrs; &amp;Angle=68; </t>
-  </si>
-  <si>
-    <t>2020 NOV 18 00:32:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.6hrs; &amp;Angle=68; </t>
-  </si>
-  <si>
-    <t>2020 NOV 18 02:30:46</t>
-  </si>
-  <si>
-    <t>2020 NOV 18 04:28:40</t>
-  </si>
-  <si>
-    <t>2020 NOV 18 06:26:37</t>
-  </si>
-  <si>
-    <t>2020 NOV 18 08:24:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.6hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2020 NOV 18 10:22:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2020 NOV 18 12:20:17</t>
-  </si>
-  <si>
-    <t>Ice CO 2SUBD #2</t>
-  </si>
-  <si>
-    <t>2020 NOV 18 14:18:07</t>
-  </si>
-  <si>
-    <t>2020 NOV 18 16:16:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=66; </t>
-  </si>
-  <si>
-    <t>2020 NOV 18 18:13:57</t>
-  </si>
-  <si>
-    <t>2020 NOV 18 20:11:54</t>
-  </si>
-  <si>
-    <t>2020 NOV 18 22:09:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=65; </t>
-  </si>
-  <si>
-    <t>2020 NOV 19 00:07:40</t>
-  </si>
-  <si>
-    <t>2020 NOV 19 02:05:30</t>
-  </si>
-  <si>
-    <t>2020 NOV 19 04:03:24</t>
-  </si>
-  <si>
-    <t>2020 NOV 19 06:01:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=64; </t>
-  </si>
-  <si>
-    <t>2020 NOV 19 07:59:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=64; </t>
-  </si>
-  <si>
-    <t>2020 NOV 19 09:57:13</t>
-  </si>
-  <si>
-    <t>2020 NOV 19 11:55:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=63; </t>
-  </si>
-  <si>
-    <t>2020 NOV 19 13:52:54</t>
-  </si>
-  <si>
-    <t>Surface Ice 3SUBD 01</t>
-  </si>
-  <si>
-    <t>2020 NOV 19 15:50:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;mergedMatch:OLYMPUS MONS; </t>
-  </si>
-  <si>
-    <t>H2O CO 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2020 NOV 19 17:48:42</t>
-  </si>
-  <si>
-    <t>2020 NOV 19 19:46:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=62; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #11</t>
-  </si>
-  <si>
-    <t>2020 NOV 19 21:44:34</t>
-  </si>
-  <si>
-    <t>2020 NOV 19 23:42:27</t>
-  </si>
-  <si>
-    <t>2020 NOV 20 01:40:17</t>
-  </si>
-  <si>
-    <t>2020 NOV 20 03:38:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=61; </t>
-  </si>
-  <si>
-    <t>2020 NOV 20 05:36:05</t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #1</t>
-  </si>
-  <si>
-    <t>2020 NOV 20 07:34:03</t>
-  </si>
-  <si>
-    <t>HCL #4</t>
-  </si>
-  <si>
-    <t>2020 NOV 20 09:31:59</t>
-  </si>
-  <si>
-    <t>2020 NOV 20 11:29:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=60; </t>
-  </si>
-  <si>
-    <t>2020 NOV 20 13:27:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;ingressMatch:CLARITAS RISE; </t>
-  </si>
-  <si>
-    <t>2020 NOV 20 15:25:35</t>
-  </si>
-  <si>
-    <t>CO2 100km #1</t>
-  </si>
-  <si>
-    <t>2020 NOV 20 17:23:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=60; </t>
-  </si>
-  <si>
-    <t>2020 NOV 20 19:21:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=59; </t>
-  </si>
-  <si>
-    <t>2020 NOV 20 21:19:23</t>
-  </si>
-  <si>
-    <t>HCL #11</t>
-  </si>
-  <si>
-    <t>2020 NOV 20 23:17:17</t>
-  </si>
-  <si>
-    <t>6SUBD CH4 H2O #1</t>
-  </si>
-  <si>
-    <t>Nominal 4SUBD #2</t>
-  </si>
-  <si>
-    <t>2020 NOV 21 01:15:09</t>
-  </si>
-  <si>
-    <t>2020 NOV 21 03:13:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=58; </t>
-  </si>
-  <si>
-    <t>HCL #9</t>
-  </si>
-  <si>
-    <t>2020 NOV 21 05:10:55</t>
-  </si>
-  <si>
-    <t>CH4 H2O 2SUBD 02</t>
-  </si>
-  <si>
-    <t>2020 NOV 21 07:08:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:AEOLIS MENSAE MFF; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CH4 #2</t>
-  </si>
-  <si>
-    <t>2020 NOV 21 09:06:49</t>
-  </si>
-  <si>
-    <t>2020 NOV 21 11:04:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=57; </t>
-  </si>
-  <si>
-    <t>2020 NOV 21 13:02:35</t>
-  </si>
-  <si>
-    <t>2020 NOV 21 15:00:26</t>
-  </si>
-  <si>
-    <t>2020 NOV 21 16:58:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:MERIDIANI SULPHATES; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 Dipole #1</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #2</t>
-  </si>
-  <si>
-    <t>2020 NOV 21 18:56:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=56; </t>
-  </si>
-  <si>
-    <t>2020 NOV 21 20:54:14</t>
-  </si>
-  <si>
-    <t>HDO 01</t>
-  </si>
-  <si>
-    <t>2020 NOV 21 22:52:09</t>
-  </si>
-  <si>
-    <t>2020 NOV 22 00:50:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.7hrs; &amp;Angle=55; </t>
-  </si>
-  <si>
-    <t>2020 NOV 22 02:47:53</t>
-  </si>
-  <si>
-    <t>2020 NOV 22 04:45:47</t>
-  </si>
-  <si>
-    <t>All Fullscan Slow #2</t>
-  </si>
-  <si>
-    <t>2020 NOV 22 06:43:44</t>
-  </si>
-  <si>
-    <t>2020 NOV 22 08:41:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.7hrs; &amp;Angle=54; </t>
-  </si>
-  <si>
-    <t>2020 NOV 22 10:39:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:ACIDALIA MUD VOLCANOES NE; </t>
-  </si>
-  <si>
-    <t>2020 NOV 22 12:37:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=54; </t>
-  </si>
-  <si>
-    <t>2020 NOV 22 14:35:21</t>
-  </si>
-  <si>
-    <t>2020 NOV 22 16:33:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=53; </t>
-  </si>
-  <si>
-    <t>2020 NOV 22 18:31:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2020 NOV 22 20:29:07</t>
-  </si>
-  <si>
-    <t>2020 NOV 22 22:27:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.5hrs; &amp;Angle=53; </t>
-  </si>
-  <si>
-    <t>2020 NOV 23 00:24:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO2 #2</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #1</t>
-  </si>
-  <si>
-    <t>2020 NOV 23 02:22:49</t>
-  </si>
-  <si>
-    <t>2020 NOV 23 04:20:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.5hrs; &amp;Angle=52; </t>
-  </si>
-  <si>
-    <t>2020 NOV 23 06:18:37</t>
-  </si>
-  <si>
-    <t>HCL #5</t>
-  </si>
-  <si>
-    <t>2020 NOV 23 08:16:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
-  </si>
-  <si>
-    <t>2020 NOV 23 10:14:32</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #10</t>
-  </si>
-  <si>
-    <t>2020 NOV 23 12:12:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:NILI FOSSAE; </t>
-  </si>
-  <si>
-    <t>2020 NOV 23 14:10:17</t>
-  </si>
-  <si>
-    <t>2020 NOV 23 16:08:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.4hrs; &amp;Angle=50; </t>
-  </si>
-  <si>
-    <t>2020 NOV 23 18:06:05</t>
-  </si>
-  <si>
-    <t>2020 NOV 23 20:04:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=50; </t>
-  </si>
-  <si>
-    <t>2020 NOV 23 22:01:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:COPRATES RISE; </t>
-  </si>
-  <si>
-    <t>2020 NOV 23 23:59:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=49; </t>
-  </si>
-  <si>
-    <t>2020 NOV 24 01:57:47</t>
-  </si>
-  <si>
-    <t>2020 NOV 24 03:55:38</t>
-  </si>
-  <si>
-    <t>2020 NOV 24 05:53:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=48; </t>
-  </si>
-  <si>
-    <t>2020 NOV 24 07:51:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.2hrs; &amp;Angle=48; </t>
-  </si>
-  <si>
-    <t>2020 NOV 24 09:49:28</t>
-  </si>
-  <si>
-    <t>2020 NOV 24 11:47:24</t>
-  </si>
-  <si>
-    <t>2020 NOV 24 13:45:16</t>
-  </si>
-  <si>
-    <t>2020 NOV 24 15:43:08</t>
-  </si>
-  <si>
-    <t>2020 NOV 24 17:41:02</t>
-  </si>
-  <si>
-    <t>2020 NOV 24 19:38:58</t>
-  </si>
-  <si>
-    <t>2020 NOV 24 21:36:55</t>
-  </si>
-  <si>
-    <t>2020 NOV 24 23:34:51</t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #5</t>
-  </si>
-  <si>
-    <t>2020 NOV 25 01:32:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.1hrs; &amp;Angle=46; </t>
-  </si>
-  <si>
-    <t>2020 NOV 25 03:30:36</t>
-  </si>
-  <si>
-    <t>2020 NOV 25 05:28:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=45; </t>
-  </si>
-  <si>
-    <t>2020 NOV 25 07:26:26</t>
-  </si>
-  <si>
-    <t>2020 NOV 25 09:24:24</t>
-  </si>
-  <si>
-    <t>2020 NOV 25 11:22:21</t>
-  </si>
-  <si>
-    <t>2020 NOV 25 13:20:14</t>
-  </si>
-  <si>
-    <t>2020 NOV 25 15:18:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=44; </t>
-  </si>
-  <si>
-    <t>2020 NOV 25 17:15:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.9hrs; &amp;Angle=44; </t>
-  </si>
-  <si>
-    <t>CO Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>2020 NOV 25 19:13:55</t>
-  </si>
-  <si>
-    <t>2020 NOV 25 21:11:52</t>
-  </si>
-  <si>
-    <t>2020 NOV 25 23:09:48</t>
-  </si>
-  <si>
-    <t>2020 NOV 26 01:07:43</t>
-  </si>
-  <si>
-    <t>2020 NOV 26 03:05:36</t>
-  </si>
-  <si>
-    <t>2020 NOV 26 05:03:28</t>
-  </si>
-  <si>
-    <t>2020 NOV 26 07:01:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2020 NOV 26 08:59:21</t>
-  </si>
-  <si>
-    <t>2020 NOV 26 10:57:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.8hrs; &amp;Angle=41; </t>
-  </si>
-  <si>
-    <t>2020 NOV 26 12:55:14</t>
-  </si>
-  <si>
-    <t>2020 NOV 26 14:53:06</t>
-  </si>
-  <si>
-    <t>2020 NOV 26 16:50:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.7hrs; &amp;Angle=41; </t>
-  </si>
-  <si>
-    <t>2020 NOV 26 18:48:52</t>
-  </si>
-  <si>
-    <t>2020 NOV 26 20:46:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.7hrs; &amp;Angle=40; </t>
-  </si>
-  <si>
-    <t>2020 NOV 26 22:44:46</t>
-  </si>
-  <si>
-    <t>2020 NOV 27 00:42:41</t>
-  </si>
-  <si>
-    <t>2020 NOV 27 02:40:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:PAVONIS MONS; &amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; </t>
-  </si>
-  <si>
-    <t>2020 NOV 27 04:38:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.6hrs; &amp;Angle=39; </t>
-  </si>
-  <si>
-    <t>2020 NOV 27 06:36:20</t>
-  </si>
-  <si>
-    <t>2020 NOV 27 08:34:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERBERUS FOSSAE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2020 NOV 27 10:32:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2020 NOV 27 12:30:11</t>
-  </si>
-  <si>
-    <t>6SUBD CO H2O #2</t>
-  </si>
-  <si>
-    <t>132 only #2</t>
-  </si>
-  <si>
-    <t>2020 NOV 27 14:28:05</t>
-  </si>
-  <si>
-    <t>2020 NOV 27 16:25:56</t>
-  </si>
-  <si>
-    <t>2020 NOV 27 18:23:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.5hrs; &amp;Angle=37; </t>
-  </si>
-  <si>
-    <t>Dust H2O 01</t>
-  </si>
-  <si>
-    <t>2020 NOV 27 20:21:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS; </t>
-  </si>
-  <si>
-    <t>2020 NOV 27 22:19:43</t>
-  </si>
-  <si>
-    <t>2020 NOV 28 00:17:40</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #3</t>
-  </si>
-  <si>
-    <t>2020 NOV 28 02:15:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS FOSSAE; </t>
-  </si>
-  <si>
     <t>2020 NOV 28 04:13:26</t>
   </si>
   <si>
@@ -1787,9 +1766,6 @@
   </si>
   <si>
     <t>2020 NOV 28 10:07:13</t>
-  </si>
-  <si>
-    <t>CO2 Fullscan Fast #3</t>
   </si>
   <si>
     <t>2020 NOV 28 12:05:10</t>
@@ -2339,25 +2315,25 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
       </c>
       <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
         <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2365,19 +2341,19 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -2386,10 +2362,10 @@
         <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2400,10 +2376,10 @@
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2411,34 +2387,34 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
         <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2449,10 +2425,10 @@
         <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2460,19 +2436,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -2481,10 +2457,10 @@
         <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2495,10 +2471,10 @@
         <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2506,34 +2482,34 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
         <v>8</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2544,10 +2520,10 @@
         <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2555,19 +2531,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -2576,10 +2552,10 @@
         <v>8</v>
       </c>
       <c r="L19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2590,10 +2566,10 @@
         <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2601,34 +2577,34 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
         <v>8</v>
       </c>
       <c r="L21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2639,10 +2615,10 @@
         <v>8</v>
       </c>
       <c r="L22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M22" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2650,19 +2626,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
@@ -2671,10 +2647,10 @@
         <v>8</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2685,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="L24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2696,34 +2672,34 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s">
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2731,22 +2707,22 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s">
         <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2757,10 +2733,10 @@
         <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2768,25 +2744,25 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" t="s">
         <v>78</v>
-      </c>
-      <c r="H28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" t="s">
-        <v>83</v>
-      </c>
-      <c r="M28" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2797,10 +2773,10 @@
         <v>8</v>
       </c>
       <c r="L29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M29" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2811,10 +2787,10 @@
         <v>8</v>
       </c>
       <c r="L30" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M30" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2822,25 +2798,25 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s">
         <v>8</v>
       </c>
       <c r="L31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M31" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2848,22 +2824,22 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s">
         <v>8</v>
       </c>
       <c r="L32" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M32" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2874,10 +2850,10 @@
         <v>8</v>
       </c>
       <c r="L33" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M33" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2888,10 +2864,10 @@
         <v>8</v>
       </c>
       <c r="L34" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M34" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2899,25 +2875,25 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" t="s">
         <v>90</v>
       </c>
-      <c r="H35" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" t="s">
-        <v>96</v>
-      </c>
       <c r="M35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2928,10 +2904,10 @@
         <v>8</v>
       </c>
       <c r="L36" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M36" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2939,22 +2915,22 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M37" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2962,25 +2938,25 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
         <v>8</v>
       </c>
       <c r="L38" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M38" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2991,10 +2967,10 @@
         <v>8</v>
       </c>
       <c r="L39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M39" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3005,10 +2981,10 @@
         <v>8</v>
       </c>
       <c r="L40" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M40" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3016,22 +2992,22 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s">
         <v>8</v>
       </c>
       <c r="L41" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M41" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3042,10 +3018,10 @@
         <v>8</v>
       </c>
       <c r="L42" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M42" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3056,10 +3032,10 @@
         <v>8</v>
       </c>
       <c r="L43" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M43" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3067,25 +3043,25 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="I44" t="s">
         <v>8</v>
       </c>
       <c r="L44" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M44" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3096,10 +3072,10 @@
         <v>8</v>
       </c>
       <c r="L45" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M45" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3110,10 +3086,10 @@
         <v>8</v>
       </c>
       <c r="L46" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M46" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3124,10 +3100,10 @@
         <v>8</v>
       </c>
       <c r="L47" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M47" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3138,16 +3114,16 @@
         <v>8</v>
       </c>
       <c r="J48" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K48" t="s">
         <v>10</v>
       </c>
       <c r="L48" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M48" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3158,10 +3134,10 @@
         <v>8</v>
       </c>
       <c r="L49" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M49" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3169,16 +3145,16 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I50" t="s">
         <v>8</v>
       </c>
       <c r="L50" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M50" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3189,10 +3165,10 @@
         <v>8</v>
       </c>
       <c r="L51" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M51" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3203,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="L52" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M52" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3214,16 +3190,16 @@
         <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I53" t="s">
         <v>8</v>
       </c>
       <c r="L53" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M53" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3234,10 +3210,10 @@
         <v>8</v>
       </c>
       <c r="L54" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M54" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3248,10 +3224,10 @@
         <v>8</v>
       </c>
       <c r="L55" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M55" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3259,16 +3235,16 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I56" t="s">
         <v>8</v>
       </c>
       <c r="L56" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M56" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3279,10 +3255,10 @@
         <v>8</v>
       </c>
       <c r="L57" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M57" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3293,10 +3269,10 @@
         <v>8</v>
       </c>
       <c r="L58" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M58" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3307,10 +3283,10 @@
         <v>8</v>
       </c>
       <c r="L59" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M59" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3321,10 +3297,10 @@
         <v>8</v>
       </c>
       <c r="L60" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M60" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3335,10 +3311,10 @@
         <v>8</v>
       </c>
       <c r="L61" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M61" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3346,16 +3322,16 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I62" t="s">
         <v>8</v>
       </c>
       <c r="L62" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M62" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3366,10 +3342,10 @@
         <v>8</v>
       </c>
       <c r="L63" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M63" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3377,16 +3353,16 @@
         <v>8</v>
       </c>
       <c r="H64" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I64" t="s">
         <v>8</v>
       </c>
       <c r="L64" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M64" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3397,10 +3373,10 @@
         <v>8</v>
       </c>
       <c r="L65" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M65" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3411,10 +3387,10 @@
         <v>8</v>
       </c>
       <c r="L66" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M66" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3425,10 +3401,10 @@
         <v>8</v>
       </c>
       <c r="L67" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M67" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3436,16 +3412,16 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I68" t="s">
         <v>8</v>
       </c>
       <c r="L68" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M68" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3456,10 +3432,10 @@
         <v>8</v>
       </c>
       <c r="L69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M69" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3470,10 +3446,10 @@
         <v>8</v>
       </c>
       <c r="L70" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M70" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3484,16 +3460,16 @@
         <v>8</v>
       </c>
       <c r="J71" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K71" t="s">
         <v>10</v>
       </c>
       <c r="L71" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3504,10 +3480,10 @@
         <v>8</v>
       </c>
       <c r="L72" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M72" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3518,10 +3494,10 @@
         <v>8</v>
       </c>
       <c r="L73" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M73" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3532,10 +3508,10 @@
         <v>8</v>
       </c>
       <c r="L74" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M74" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3543,16 +3519,16 @@
         <v>28</v>
       </c>
       <c r="H75" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I75" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L75" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M75" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3563,10 +3539,10 @@
         <v>8</v>
       </c>
       <c r="L76" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M76" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3577,10 +3553,10 @@
         <v>8</v>
       </c>
       <c r="L77" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M77" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3591,10 +3567,10 @@
         <v>8</v>
       </c>
       <c r="L78" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M78" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3605,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="L79" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M79" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3619,10 +3595,10 @@
         <v>8</v>
       </c>
       <c r="L80" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M80" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3630,16 +3606,16 @@
         <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I81" t="s">
         <v>8</v>
       </c>
       <c r="L81" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M81" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3650,10 +3626,10 @@
         <v>8</v>
       </c>
       <c r="L82" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M82" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3664,10 +3640,10 @@
         <v>8</v>
       </c>
       <c r="L83" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M83" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3678,10 +3654,10 @@
         <v>8</v>
       </c>
       <c r="L84" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M84" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3692,10 +3668,10 @@
         <v>8</v>
       </c>
       <c r="L85" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M85" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3703,10 +3679,10 @@
         <v>14</v>
       </c>
       <c r="L86" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M86" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3714,10 +3690,10 @@
         <v>14</v>
       </c>
       <c r="L87" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M87" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3725,16 +3701,16 @@
         <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="I88" t="s">
         <v>8</v>
       </c>
       <c r="L88" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M88" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3745,10 +3721,10 @@
         <v>8</v>
       </c>
       <c r="L89" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M89" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3756,16 +3732,16 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I90" t="s">
         <v>8</v>
       </c>
       <c r="L90" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M90" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3776,10 +3752,10 @@
         <v>8</v>
       </c>
       <c r="L91" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M91" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3790,10 +3766,10 @@
         <v>8</v>
       </c>
       <c r="L92" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M92" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3801,10 +3777,10 @@
         <v>14</v>
       </c>
       <c r="L93" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M93" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3812,16 +3788,16 @@
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="I94" t="s">
         <v>8</v>
       </c>
       <c r="L94" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M94" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3832,10 +3808,10 @@
         <v>8</v>
       </c>
       <c r="L95" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M95" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3846,10 +3822,10 @@
         <v>8</v>
       </c>
       <c r="L96" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M96" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3860,10 +3836,10 @@
         <v>8</v>
       </c>
       <c r="L97" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M97" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3874,10 +3850,10 @@
         <v>8</v>
       </c>
       <c r="L98" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M98" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3888,10 +3864,10 @@
         <v>8</v>
       </c>
       <c r="L99" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M99" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3899,16 +3875,16 @@
         <v>3</v>
       </c>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I100" t="s">
         <v>8</v>
       </c>
       <c r="L100" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M100" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3919,10 +3895,10 @@
         <v>8</v>
       </c>
       <c r="L101" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M101" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3933,10 +3909,10 @@
         <v>8</v>
       </c>
       <c r="L102" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M102" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3947,10 +3923,10 @@
         <v>8</v>
       </c>
       <c r="L103" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M103" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3961,10 +3937,10 @@
         <v>8</v>
       </c>
       <c r="L104" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M104" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3975,10 +3951,10 @@
         <v>8</v>
       </c>
       <c r="L105" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M105" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3986,16 +3962,16 @@
         <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I106" t="s">
         <v>8</v>
       </c>
       <c r="L106" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M106" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4006,10 +3982,10 @@
         <v>8</v>
       </c>
       <c r="L107" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M107" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4020,10 +3996,10 @@
         <v>8</v>
       </c>
       <c r="L108" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M108" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4031,16 +4007,16 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I109" t="s">
         <v>8</v>
       </c>
       <c r="L109" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M109" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4051,10 +4027,10 @@
         <v>8</v>
       </c>
       <c r="L110" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M110" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4065,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="L111" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M111" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4076,16 +4052,16 @@
         <v>3</v>
       </c>
       <c r="H112" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I112" t="s">
         <v>8</v>
       </c>
       <c r="L112" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M112" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4096,10 +4072,10 @@
         <v>8</v>
       </c>
       <c r="L113" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M113" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4110,10 +4086,10 @@
         <v>8</v>
       </c>
       <c r="L114" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M114" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4124,10 +4100,10 @@
         <v>8</v>
       </c>
       <c r="L115" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M115" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4135,16 +4111,16 @@
         <v>8</v>
       </c>
       <c r="H116" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="I116" t="s">
         <v>8</v>
       </c>
       <c r="L116" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M116" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4155,10 +4131,10 @@
         <v>8</v>
       </c>
       <c r="L117" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M117" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4166,16 +4142,16 @@
         <v>3</v>
       </c>
       <c r="H118" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I118" t="s">
         <v>8</v>
       </c>
       <c r="L118" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M118" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4186,10 +4162,10 @@
         <v>8</v>
       </c>
       <c r="L119" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M119" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -4200,10 +4176,10 @@
         <v>8</v>
       </c>
       <c r="L120" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M120" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -4214,10 +4190,10 @@
         <v>8</v>
       </c>
       <c r="L121" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M121" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -4228,10 +4204,10 @@
         <v>8</v>
       </c>
       <c r="L122" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M122" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4242,10 +4218,10 @@
         <v>8</v>
       </c>
       <c r="L123" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M123" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -4253,16 +4229,16 @@
         <v>3</v>
       </c>
       <c r="H124" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I124" t="s">
         <v>8</v>
       </c>
       <c r="L124" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M124" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4273,10 +4249,10 @@
         <v>8</v>
       </c>
       <c r="L125" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M125" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4287,10 +4263,10 @@
         <v>8</v>
       </c>
       <c r="L126" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M126" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4301,16 +4277,16 @@
         <v>8</v>
       </c>
       <c r="J127" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K127" t="s">
         <v>10</v>
       </c>
       <c r="L127" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M127" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4321,10 +4297,10 @@
         <v>8</v>
       </c>
       <c r="L128" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M128" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4335,10 +4311,10 @@
         <v>8</v>
       </c>
       <c r="L129" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M129" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4346,16 +4322,16 @@
         <v>3</v>
       </c>
       <c r="H130" t="s">
-        <v>66</v>
+        <v>245</v>
       </c>
       <c r="I130" t="s">
         <v>8</v>
       </c>
       <c r="L130" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M130" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4366,10 +4342,10 @@
         <v>8</v>
       </c>
       <c r="L131" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M131" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4380,10 +4356,10 @@
         <v>8</v>
       </c>
       <c r="L132" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M132" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4394,10 +4370,10 @@
         <v>8</v>
       </c>
       <c r="L133" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M133" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4408,10 +4384,10 @@
         <v>8</v>
       </c>
       <c r="L134" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M134" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4422,10 +4398,10 @@
         <v>8</v>
       </c>
       <c r="L135" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M135" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4433,16 +4409,16 @@
         <v>3</v>
       </c>
       <c r="H136" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I136" t="s">
         <v>8</v>
       </c>
       <c r="L136" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M136" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4453,10 +4429,10 @@
         <v>8</v>
       </c>
       <c r="L137" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M137" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -4467,10 +4443,10 @@
         <v>8</v>
       </c>
       <c r="L138" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M138" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4478,16 +4454,16 @@
         <v>3</v>
       </c>
       <c r="H139" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="I139" t="s">
         <v>8</v>
       </c>
       <c r="L139" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M139" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4498,10 +4474,10 @@
         <v>8</v>
       </c>
       <c r="L140" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M140" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4512,10 +4488,10 @@
         <v>8</v>
       </c>
       <c r="L141" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M141" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4523,16 +4499,16 @@
         <v>3</v>
       </c>
       <c r="H142" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="I142" t="s">
         <v>8</v>
       </c>
       <c r="L142" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M142" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4540,16 +4516,16 @@
         <v>28</v>
       </c>
       <c r="H143" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="I143" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L143" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M143" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4560,10 +4536,10 @@
         <v>8</v>
       </c>
       <c r="L144" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M144" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4574,10 +4550,10 @@
         <v>8</v>
       </c>
       <c r="L145" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M145" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -4588,10 +4564,10 @@
         <v>8</v>
       </c>
       <c r="L146" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M146" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -4599,16 +4575,16 @@
         <v>8</v>
       </c>
       <c r="H147" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I147" t="s">
         <v>8</v>
       </c>
       <c r="L147" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M147" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -4619,10 +4595,10 @@
         <v>8</v>
       </c>
       <c r="L148" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M148" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -4630,16 +4606,16 @@
         <v>3</v>
       </c>
       <c r="H149" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I149" t="s">
         <v>8</v>
       </c>
       <c r="L149" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M149" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -4650,10 +4626,10 @@
         <v>8</v>
       </c>
       <c r="L150" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M150" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -4664,10 +4640,10 @@
         <v>8</v>
       </c>
       <c r="L151" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M151" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -4678,10 +4654,10 @@
         <v>8</v>
       </c>
       <c r="L152" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M152" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -4692,10 +4668,10 @@
         <v>8</v>
       </c>
       <c r="L153" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M153" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -4706,10 +4682,10 @@
         <v>8</v>
       </c>
       <c r="L154" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M154" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -4717,16 +4693,16 @@
         <v>3</v>
       </c>
       <c r="H155" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="I155" t="s">
         <v>8</v>
       </c>
       <c r="L155" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M155" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -4737,10 +4713,10 @@
         <v>8</v>
       </c>
       <c r="L156" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M156" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -4751,10 +4727,10 @@
         <v>8</v>
       </c>
       <c r="L157" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M157" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -4765,10 +4741,10 @@
         <v>8</v>
       </c>
       <c r="L158" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M158" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -4779,16 +4755,16 @@
         <v>8</v>
       </c>
       <c r="J159" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K159" t="s">
         <v>10</v>
       </c>
       <c r="L159" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M159" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -4799,10 +4775,10 @@
         <v>8</v>
       </c>
       <c r="L160" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M160" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -4810,16 +4786,16 @@
         <v>3</v>
       </c>
       <c r="H161" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I161" t="s">
         <v>8</v>
       </c>
       <c r="L161" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M161" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -4830,10 +4806,10 @@
         <v>8</v>
       </c>
       <c r="L162" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M162" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -4844,10 +4820,10 @@
         <v>8</v>
       </c>
       <c r="L163" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M163" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -4858,10 +4834,10 @@
         <v>8</v>
       </c>
       <c r="L164" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M164" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -4872,10 +4848,10 @@
         <v>8</v>
       </c>
       <c r="L165" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M165" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -4886,10 +4862,10 @@
         <v>8</v>
       </c>
       <c r="L166" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M166" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -4897,16 +4873,16 @@
         <v>3</v>
       </c>
       <c r="H167" t="s">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="I167" t="s">
         <v>8</v>
       </c>
       <c r="L167" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M167" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -4917,10 +4893,10 @@
         <v>8</v>
       </c>
       <c r="L168" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M168" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -4931,10 +4907,10 @@
         <v>8</v>
       </c>
       <c r="L169" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="M169" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -4945,10 +4921,10 @@
         <v>8</v>
       </c>
       <c r="L170" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="M170" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -4959,10 +4935,10 @@
         <v>8</v>
       </c>
       <c r="L171" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M171" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -4970,10 +4946,10 @@
         <v>14</v>
       </c>
       <c r="L172" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M172" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -4981,10 +4957,10 @@
         <v>14</v>
       </c>
       <c r="L173" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M173" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -4992,16 +4968,16 @@
         <v>3</v>
       </c>
       <c r="H174" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I174" t="s">
         <v>8</v>
       </c>
       <c r="L174" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M174" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -5012,10 +4988,10 @@
         <v>8</v>
       </c>
       <c r="L175" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M175" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -5026,10 +5002,10 @@
         <v>8</v>
       </c>
       <c r="L176" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M176" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -5040,10 +5016,10 @@
         <v>8</v>
       </c>
       <c r="L177" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M177" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -5051,7 +5027,7 @@
         <v>14</v>
       </c>
       <c r="L178" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M178" t="s">
         <v>29</v>
@@ -5062,16 +5038,16 @@
         <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>33</v>
+        <v>325</v>
       </c>
       <c r="I179" t="s">
         <v>8</v>
       </c>
       <c r="L179" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M179" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -5082,10 +5058,10 @@
         <v>8</v>
       </c>
       <c r="L180" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M180" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -5096,10 +5072,10 @@
         <v>8</v>
       </c>
       <c r="L181" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M181" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -5110,10 +5086,10 @@
         <v>8</v>
       </c>
       <c r="L182" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M182" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -5124,16 +5100,16 @@
         <v>8</v>
       </c>
       <c r="J183" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K183" t="s">
         <v>10</v>
       </c>
       <c r="L183" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M183" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -5144,10 +5120,10 @@
         <v>8</v>
       </c>
       <c r="L184" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M184" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -5158,10 +5134,10 @@
         <v>8</v>
       </c>
       <c r="L185" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M185" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -5172,10 +5148,10 @@
         <v>8</v>
       </c>
       <c r="L186" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M186" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -5183,16 +5159,16 @@
         <v>3</v>
       </c>
       <c r="H187" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I187" t="s">
         <v>8</v>
       </c>
       <c r="L187" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M187" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -5203,10 +5179,10 @@
         <v>8</v>
       </c>
       <c r="L188" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M188" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -5217,10 +5193,10 @@
         <v>8</v>
       </c>
       <c r="L189" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M189" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -5231,10 +5207,10 @@
         <v>8</v>
       </c>
       <c r="L190" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M190" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -5242,16 +5218,16 @@
         <v>28</v>
       </c>
       <c r="H191" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="I191" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L191" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M191" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -5259,10 +5235,10 @@
         <v>14</v>
       </c>
       <c r="L192" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M192" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -5270,10 +5246,10 @@
         <v>14</v>
       </c>
       <c r="L193" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M193" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -5281,10 +5257,10 @@
         <v>14</v>
       </c>
       <c r="L194" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M194" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -5292,10 +5268,10 @@
         <v>14</v>
       </c>
       <c r="L195" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M195" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -5303,10 +5279,10 @@
         <v>14</v>
       </c>
       <c r="L196" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M196" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -5314,10 +5290,10 @@
         <v>14</v>
       </c>
       <c r="L197" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M197" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -5325,10 +5301,10 @@
         <v>14</v>
       </c>
       <c r="L198" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M198" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -5336,10 +5312,10 @@
         <v>14</v>
       </c>
       <c r="L199" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M199" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -5347,16 +5323,16 @@
         <v>3</v>
       </c>
       <c r="H200" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I200" t="s">
         <v>8</v>
       </c>
       <c r="L200" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M200" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -5367,10 +5343,10 @@
         <v>8</v>
       </c>
       <c r="L201" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M201" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -5381,10 +5357,10 @@
         <v>8</v>
       </c>
       <c r="L202" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M202" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -5395,10 +5371,10 @@
         <v>8</v>
       </c>
       <c r="L203" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M203" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -5409,10 +5385,10 @@
         <v>8</v>
       </c>
       <c r="L204" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M204" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -5423,10 +5399,10 @@
         <v>8</v>
       </c>
       <c r="L205" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M205" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -5434,16 +5410,16 @@
         <v>8</v>
       </c>
       <c r="H206" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I206" t="s">
         <v>8</v>
       </c>
       <c r="L206" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M206" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -5454,10 +5430,10 @@
         <v>8</v>
       </c>
       <c r="L207" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M207" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -5465,16 +5441,16 @@
         <v>3</v>
       </c>
       <c r="H208" t="s">
-        <v>66</v>
+        <v>368</v>
       </c>
       <c r="I208" t="s">
         <v>8</v>
       </c>
       <c r="L208" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M208" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -5485,10 +5461,10 @@
         <v>8</v>
       </c>
       <c r="L209" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M209" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -5499,10 +5475,10 @@
         <v>8</v>
       </c>
       <c r="L210" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M210" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -5513,10 +5489,10 @@
         <v>8</v>
       </c>
       <c r="L211" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M211" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -5527,16 +5503,16 @@
         <v>8</v>
       </c>
       <c r="J212" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K212" t="s">
         <v>10</v>
       </c>
       <c r="L212" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M212" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -5547,10 +5523,10 @@
         <v>8</v>
       </c>
       <c r="L213" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M213" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -5561,10 +5537,10 @@
         <v>8</v>
       </c>
       <c r="L214" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M214" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -5575,10 +5551,10 @@
         <v>8</v>
       </c>
       <c r="L215" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M215" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -5589,10 +5565,10 @@
         <v>8</v>
       </c>
       <c r="L216" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M216" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -5600,16 +5576,16 @@
         <v>3</v>
       </c>
       <c r="H217" t="s">
-        <v>314</v>
+        <v>245</v>
       </c>
       <c r="I217" t="s">
         <v>8</v>
       </c>
       <c r="L217" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M217" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -5620,10 +5596,10 @@
         <v>8</v>
       </c>
       <c r="L218" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M218" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -5634,10 +5610,10 @@
         <v>8</v>
       </c>
       <c r="L219" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M219" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -5645,16 +5621,16 @@
         <v>3</v>
       </c>
       <c r="H220" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I220" t="s">
         <v>8</v>
       </c>
       <c r="L220" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M220" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -5662,25 +5638,25 @@
         <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="C221" t="s">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="D221" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H221" t="s">
-        <v>392</v>
+        <v>13</v>
       </c>
       <c r="I221" t="s">
         <v>8</v>
       </c>
       <c r="L221" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M221" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -5691,10 +5667,10 @@
         <v>8</v>
       </c>
       <c r="L222" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M222" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -5702,22 +5678,22 @@
         <v>5</v>
       </c>
       <c r="B223" t="s">
-        <v>65</v>
+        <v>387</v>
       </c>
       <c r="C223" t="s">
-        <v>65</v>
+        <v>387</v>
       </c>
       <c r="D223" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I223" t="s">
         <v>8</v>
       </c>
       <c r="L223" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M223" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -5728,10 +5704,10 @@
         <v>8</v>
       </c>
       <c r="L224" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="M224" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -5742,10 +5718,10 @@
         <v>8</v>
       </c>
       <c r="L225" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M225" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -5753,25 +5729,25 @@
         <v>5</v>
       </c>
       <c r="B226" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C226" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D226" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H226" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="I226" t="s">
         <v>8</v>
       </c>
       <c r="L226" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M226" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -5782,10 +5758,10 @@
         <v>8</v>
       </c>
       <c r="L227" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M227" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -5796,10 +5772,10 @@
         <v>8</v>
       </c>
       <c r="L228" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M228" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -5807,22 +5783,22 @@
         <v>5</v>
       </c>
       <c r="B229" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C229" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D229" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I229" t="s">
         <v>8</v>
       </c>
       <c r="L229" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M229" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -5833,10 +5809,10 @@
         <v>8</v>
       </c>
       <c r="L230" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M230" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -5844,22 +5820,22 @@
         <v>5</v>
       </c>
       <c r="B231" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C231" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D231" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I231" t="s">
         <v>8</v>
       </c>
       <c r="L231" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M231" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -5867,22 +5843,22 @@
         <v>5</v>
       </c>
       <c r="B232" t="s">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="C232" t="s">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="D232" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I232" t="s">
         <v>8</v>
       </c>
       <c r="L232" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M232" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -5893,10 +5869,10 @@
         <v>8</v>
       </c>
       <c r="L233" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="M233" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -5904,25 +5880,25 @@
         <v>5</v>
       </c>
       <c r="B234" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C234" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D234" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H234" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="I234" t="s">
         <v>8</v>
       </c>
       <c r="L234" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M234" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -5930,16 +5906,16 @@
         <v>3</v>
       </c>
       <c r="H235" t="s">
-        <v>414</v>
+        <v>143</v>
       </c>
       <c r="I235" t="s">
         <v>8</v>
       </c>
       <c r="L235" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M235" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -5950,10 +5926,10 @@
         <v>8</v>
       </c>
       <c r="L236" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M236" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -5961,22 +5937,22 @@
         <v>5</v>
       </c>
       <c r="B237" t="s">
-        <v>418</v>
+        <v>34</v>
       </c>
       <c r="C237" t="s">
-        <v>418</v>
+        <v>34</v>
       </c>
       <c r="D237" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I237" t="s">
         <v>8</v>
       </c>
       <c r="L237" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="M237" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -5984,25 +5960,25 @@
         <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>418</v>
+        <v>68</v>
       </c>
       <c r="C238" t="s">
-        <v>418</v>
+        <v>68</v>
       </c>
       <c r="D238" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H238" t="s">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="I238" t="s">
         <v>8</v>
       </c>
       <c r="L238" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M238" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -6010,16 +5986,16 @@
         <v>3</v>
       </c>
       <c r="H239" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="I239" t="s">
         <v>8</v>
       </c>
       <c r="L239" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M239" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -6027,19 +6003,19 @@
         <v>1</v>
       </c>
       <c r="B240" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
       <c r="C240" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
       </c>
       <c r="E240" t="s">
-        <v>60</v>
+        <v>416</v>
       </c>
       <c r="F240" t="s">
-        <v>60</v>
+        <v>416</v>
       </c>
       <c r="G240" t="s">
         <v>6</v>
@@ -6048,10 +6024,10 @@
         <v>8</v>
       </c>
       <c r="L240" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M240" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -6059,16 +6035,16 @@
         <v>3</v>
       </c>
       <c r="H241" t="s">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="I241" t="s">
         <v>8</v>
       </c>
       <c r="L241" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M241" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -6076,19 +6052,19 @@
         <v>1</v>
       </c>
       <c r="B242" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C242" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>
       </c>
       <c r="E242" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F242" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G242" t="s">
         <v>6</v>
@@ -6097,10 +6073,10 @@
         <v>8</v>
       </c>
       <c r="L242" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M242" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -6108,34 +6084,34 @@
         <v>1</v>
       </c>
       <c r="B243" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C243" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D243" t="s">
         <v>3</v>
       </c>
       <c r="E243" t="s">
-        <v>65</v>
+        <v>416</v>
       </c>
       <c r="F243" t="s">
-        <v>65</v>
+        <v>416</v>
       </c>
       <c r="G243" t="s">
         <v>6</v>
       </c>
       <c r="H243" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="I243" t="s">
         <v>8</v>
       </c>
       <c r="L243" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M243" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -6146,10 +6122,10 @@
         <v>8</v>
       </c>
       <c r="L244" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M244" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -6157,19 +6133,19 @@
         <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C245" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
       </c>
       <c r="E245" t="s">
-        <v>49</v>
+        <v>428</v>
       </c>
       <c r="F245" t="s">
-        <v>49</v>
+        <v>428</v>
       </c>
       <c r="G245" t="s">
         <v>6</v>
@@ -6178,10 +6154,10 @@
         <v>8</v>
       </c>
       <c r="L245" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M245" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -6189,16 +6165,16 @@
         <v>3</v>
       </c>
       <c r="H246" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I246" t="s">
         <v>8</v>
       </c>
       <c r="L246" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M246" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -6206,19 +6182,19 @@
         <v>1</v>
       </c>
       <c r="B247" t="s">
-        <v>22</v>
+        <v>415</v>
       </c>
       <c r="C247" t="s">
-        <v>22</v>
+        <v>415</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F247" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G247" t="s">
         <v>6</v>
@@ -6227,10 +6203,10 @@
         <v>8</v>
       </c>
       <c r="L247" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M247" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -6241,10 +6217,10 @@
         <v>8</v>
       </c>
       <c r="L248" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M248" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -6255,10 +6231,10 @@
         <v>8</v>
       </c>
       <c r="L249" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M249" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -6266,19 +6242,19 @@
         <v>1</v>
       </c>
       <c r="B250" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C250" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
       </c>
       <c r="E250" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F250" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G250" t="s">
         <v>6</v>
@@ -6287,10 +6263,10 @@
         <v>8</v>
       </c>
       <c r="L250" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M250" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -6298,34 +6274,34 @@
         <v>1</v>
       </c>
       <c r="B251" t="s">
-        <v>440</v>
+        <v>22</v>
       </c>
       <c r="C251" t="s">
-        <v>440</v>
+        <v>22</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
       </c>
       <c r="E251" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="F251" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="G251" t="s">
         <v>6</v>
       </c>
       <c r="H251" t="s">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="I251" t="s">
         <v>8</v>
       </c>
       <c r="L251" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M251" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -6336,10 +6312,10 @@
         <v>8</v>
       </c>
       <c r="L252" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M252" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -6347,19 +6323,19 @@
         <v>1</v>
       </c>
       <c r="B253" t="s">
-        <v>447</v>
+        <v>34</v>
       </c>
       <c r="C253" t="s">
-        <v>447</v>
+        <v>34</v>
       </c>
       <c r="D253" t="s">
         <v>3</v>
       </c>
       <c r="E253" t="s">
-        <v>65</v>
+        <v>443</v>
       </c>
       <c r="F253" t="s">
-        <v>65</v>
+        <v>443</v>
       </c>
       <c r="G253" t="s">
         <v>6</v>
@@ -6368,10 +6344,10 @@
         <v>8</v>
       </c>
       <c r="L253" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M253" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -6379,16 +6355,16 @@
         <v>3</v>
       </c>
       <c r="H254" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I254" t="s">
         <v>8</v>
       </c>
       <c r="L254" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M254" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -6396,19 +6372,19 @@
         <v>1</v>
       </c>
       <c r="B255" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C255" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
       </c>
       <c r="E255" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F255" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G255" t="s">
         <v>6</v>
@@ -6417,10 +6393,10 @@
         <v>8</v>
       </c>
       <c r="L255" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M255" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -6431,10 +6407,10 @@
         <v>8</v>
       </c>
       <c r="L256" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M256" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -6442,10 +6418,10 @@
         <v>14</v>
       </c>
       <c r="L257" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M257" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -6453,10 +6429,10 @@
         <v>14</v>
       </c>
       <c r="L258" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M258" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -6464,16 +6440,16 @@
         <v>3</v>
       </c>
       <c r="H259" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I259" t="s">
         <v>8</v>
       </c>
       <c r="L259" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M259" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -6481,19 +6457,19 @@
         <v>1</v>
       </c>
       <c r="B260" t="s">
-        <v>460</v>
+        <v>34</v>
       </c>
       <c r="C260" t="s">
-        <v>460</v>
+        <v>34</v>
       </c>
       <c r="D260" t="s">
         <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
       <c r="F260" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
       <c r="G260" t="s">
         <v>6</v>
@@ -6502,10 +6478,10 @@
         <v>8</v>
       </c>
       <c r="L260" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M260" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -6516,10 +6492,10 @@
         <v>8</v>
       </c>
       <c r="L261" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M261" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -6527,19 +6503,19 @@
         <v>1</v>
       </c>
       <c r="B262" t="s">
-        <v>50</v>
+        <v>459</v>
       </c>
       <c r="C262" t="s">
-        <v>50</v>
+        <v>459</v>
       </c>
       <c r="D262" t="s">
         <v>3</v>
       </c>
       <c r="E262" t="s">
-        <v>465</v>
+        <v>45</v>
       </c>
       <c r="F262" t="s">
-        <v>465</v>
+        <v>45</v>
       </c>
       <c r="G262" t="s">
         <v>6</v>
@@ -6548,10 +6524,10 @@
         <v>8</v>
       </c>
       <c r="L262" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="M262" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -6562,10 +6538,10 @@
         <v>8</v>
       </c>
       <c r="L263" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M263" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -6573,10 +6549,10 @@
         <v>14</v>
       </c>
       <c r="L264" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M264" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -6584,16 +6560,16 @@
         <v>3</v>
       </c>
       <c r="H265" t="s">
-        <v>392</v>
+        <v>269</v>
       </c>
       <c r="I265" t="s">
         <v>8</v>
       </c>
       <c r="L265" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M265" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -6601,19 +6577,19 @@
         <v>1</v>
       </c>
       <c r="B266" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C266" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
       </c>
       <c r="E266" t="s">
-        <v>440</v>
+        <v>46</v>
       </c>
       <c r="F266" t="s">
-        <v>440</v>
+        <v>46</v>
       </c>
       <c r="G266" t="s">
         <v>6</v>
@@ -6622,10 +6598,10 @@
         <v>8</v>
       </c>
       <c r="L266" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M266" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -6636,10 +6612,10 @@
         <v>8</v>
       </c>
       <c r="L267" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="M267" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -6647,19 +6623,19 @@
         <v>1</v>
       </c>
       <c r="B268" t="s">
-        <v>53</v>
+        <v>469</v>
       </c>
       <c r="C268" t="s">
-        <v>53</v>
+        <v>469</v>
       </c>
       <c r="D268" t="s">
         <v>3</v>
       </c>
       <c r="E268" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F268" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G268" t="s">
         <v>6</v>
@@ -6668,10 +6644,10 @@
         <v>8</v>
       </c>
       <c r="L268" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M268" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -6679,34 +6655,34 @@
         <v>1</v>
       </c>
       <c r="B269" t="s">
-        <v>89</v>
+        <v>469</v>
       </c>
       <c r="C269" t="s">
-        <v>89</v>
+        <v>469</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
       </c>
       <c r="E269" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="F269" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="G269" t="s">
         <v>6</v>
       </c>
       <c r="H269" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="I269" t="s">
         <v>8</v>
       </c>
       <c r="L269" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="M269" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -6717,10 +6693,10 @@
         <v>8</v>
       </c>
       <c r="L270" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M270" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -6731,10 +6707,10 @@
         <v>8</v>
       </c>
       <c r="L271" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M271" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -6742,34 +6718,34 @@
         <v>1</v>
       </c>
       <c r="B272" t="s">
-        <v>54</v>
+        <v>423</v>
       </c>
       <c r="C272" t="s">
-        <v>54</v>
+        <v>423</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
       </c>
       <c r="E272" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F272" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G272" t="s">
         <v>6</v>
       </c>
       <c r="H272" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I272" t="s">
         <v>8</v>
       </c>
       <c r="L272" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M272" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -6780,10 +6756,10 @@
         <v>8</v>
       </c>
       <c r="L273" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M273" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -6794,10 +6770,10 @@
         <v>8</v>
       </c>
       <c r="L274" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M274" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -6805,34 +6781,34 @@
         <v>1</v>
       </c>
       <c r="B275" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="C275" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
       </c>
       <c r="E275" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F275" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="G275" t="s">
         <v>6</v>
       </c>
       <c r="H275" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I275" t="s">
         <v>8</v>
       </c>
       <c r="L275" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="M275" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -6840,19 +6816,19 @@
         <v>1</v>
       </c>
       <c r="B276" t="s">
-        <v>489</v>
+        <v>416</v>
       </c>
       <c r="C276" t="s">
-        <v>489</v>
+        <v>416</v>
       </c>
       <c r="D276" t="s">
         <v>3</v>
       </c>
       <c r="E276" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
       <c r="F276" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
       <c r="G276" t="s">
         <v>6</v>
@@ -6861,10 +6837,10 @@
         <v>8</v>
       </c>
       <c r="L276" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="M276" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -6875,10 +6851,10 @@
         <v>8</v>
       </c>
       <c r="L277" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="M277" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -6889,10 +6865,10 @@
         <v>8</v>
       </c>
       <c r="L278" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M278" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -6900,34 +6876,34 @@
         <v>1</v>
       </c>
       <c r="B279" t="s">
-        <v>495</v>
+        <v>39</v>
       </c>
       <c r="C279" t="s">
-        <v>495</v>
+        <v>39</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
       </c>
       <c r="E279" t="s">
-        <v>50</v>
+        <v>488</v>
       </c>
       <c r="F279" t="s">
-        <v>50</v>
+        <v>488</v>
       </c>
       <c r="G279" t="s">
         <v>6</v>
       </c>
       <c r="H279" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I279" t="s">
         <v>8</v>
       </c>
       <c r="L279" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M279" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -6935,16 +6911,16 @@
         <v>3</v>
       </c>
       <c r="H280" t="s">
-        <v>411</v>
+        <v>245</v>
       </c>
       <c r="I280" t="s">
         <v>8</v>
       </c>
       <c r="L280" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="M280" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -6952,19 +6928,19 @@
         <v>1</v>
       </c>
       <c r="B281" t="s">
-        <v>489</v>
+        <v>50</v>
       </c>
       <c r="C281" t="s">
-        <v>489</v>
+        <v>50</v>
       </c>
       <c r="D281" t="s">
         <v>3</v>
       </c>
       <c r="E281" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="F281" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="G281" t="s">
         <v>6</v>
@@ -6973,10 +6949,10 @@
         <v>8</v>
       </c>
       <c r="L281" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="M281" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -6987,10 +6963,10 @@
         <v>8</v>
       </c>
       <c r="L282" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="M282" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -7001,10 +6977,10 @@
         <v>8</v>
       </c>
       <c r="L283" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="M283" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -7012,19 +6988,19 @@
         <v>1</v>
       </c>
       <c r="B284" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="C284" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="D284" t="s">
         <v>3</v>
       </c>
       <c r="E284" t="s">
-        <v>31</v>
+        <v>497</v>
       </c>
       <c r="F284" t="s">
-        <v>31</v>
+        <v>497</v>
       </c>
       <c r="G284" t="s">
         <v>6</v>
@@ -7033,10 +7009,10 @@
         <v>8</v>
       </c>
       <c r="L284" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M284" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -7044,19 +7020,19 @@
         <v>1</v>
       </c>
       <c r="B285" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="C285" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="D285" t="s">
         <v>3</v>
       </c>
       <c r="E285" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="F285" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="G285" t="s">
         <v>6</v>
@@ -7065,10 +7041,10 @@
         <v>8</v>
       </c>
       <c r="L285" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M285" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -7076,16 +7052,16 @@
         <v>3</v>
       </c>
       <c r="H286" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I286" t="s">
         <v>8</v>
       </c>
       <c r="L286" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M286" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -7096,10 +7072,10 @@
         <v>8</v>
       </c>
       <c r="L287" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="M287" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -7107,19 +7083,19 @@
         <v>1</v>
       </c>
       <c r="B288" t="s">
-        <v>42</v>
+        <v>432</v>
       </c>
       <c r="C288" t="s">
-        <v>42</v>
+        <v>432</v>
       </c>
       <c r="D288" t="s">
         <v>3</v>
       </c>
       <c r="E288" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F288" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G288" t="s">
         <v>6</v>
@@ -7128,10 +7104,10 @@
         <v>8</v>
       </c>
       <c r="L288" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M288" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -7139,16 +7115,16 @@
         <v>3</v>
       </c>
       <c r="H289" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="I289" t="s">
         <v>8</v>
       </c>
       <c r="L289" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M289" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -7159,10 +7135,10 @@
         <v>8</v>
       </c>
       <c r="L290" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M290" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -7170,19 +7146,19 @@
         <v>1</v>
       </c>
       <c r="B291" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C291" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
       </c>
       <c r="E291" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="F291" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="G291" t="s">
         <v>6</v>
@@ -7191,10 +7167,10 @@
         <v>8</v>
       </c>
       <c r="L291" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M291" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -7205,10 +7181,10 @@
         <v>8</v>
       </c>
       <c r="L292" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="M292" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -7216,34 +7192,34 @@
         <v>1</v>
       </c>
       <c r="B293" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="C293" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
       </c>
       <c r="E293" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="F293" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="G293" t="s">
         <v>6</v>
       </c>
       <c r="H293" t="s">
-        <v>275</v>
+        <v>83</v>
       </c>
       <c r="I293" t="s">
         <v>8</v>
       </c>
       <c r="L293" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="M293" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -7251,19 +7227,19 @@
         <v>1</v>
       </c>
       <c r="B294" t="s">
-        <v>65</v>
+        <v>438</v>
       </c>
       <c r="C294" t="s">
-        <v>65</v>
+        <v>438</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
       </c>
       <c r="E294" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F294" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G294" t="s">
         <v>6</v>
@@ -7272,10 +7248,10 @@
         <v>8</v>
       </c>
       <c r="L294" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="M294" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -7283,16 +7259,16 @@
         <v>3</v>
       </c>
       <c r="H295" t="s">
-        <v>100</v>
+        <v>516</v>
       </c>
       <c r="I295" t="s">
         <v>8</v>
       </c>
       <c r="L295" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M295" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -7303,10 +7279,10 @@
         <v>8</v>
       </c>
       <c r="L296" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M296" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -7314,34 +7290,34 @@
         <v>1</v>
       </c>
       <c r="B297" t="s">
-        <v>77</v>
+        <v>443</v>
       </c>
       <c r="C297" t="s">
-        <v>77</v>
+        <v>443</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
       </c>
       <c r="E297" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="F297" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="G297" t="s">
         <v>6</v>
       </c>
       <c r="H297" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="I297" t="s">
         <v>8</v>
       </c>
       <c r="L297" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M297" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -7352,10 +7328,10 @@
         <v>8</v>
       </c>
       <c r="L298" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M298" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -7363,34 +7339,34 @@
         <v>1</v>
       </c>
       <c r="B299" t="s">
-        <v>418</v>
+        <v>510</v>
       </c>
       <c r="C299" t="s">
-        <v>418</v>
+        <v>510</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
       </c>
       <c r="E299" t="s">
-        <v>54</v>
+        <v>459</v>
       </c>
       <c r="F299" t="s">
-        <v>54</v>
+        <v>459</v>
       </c>
       <c r="G299" t="s">
         <v>6</v>
       </c>
       <c r="H299" t="s">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="I299" t="s">
         <v>8</v>
       </c>
       <c r="L299" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M299" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -7398,19 +7374,19 @@
         <v>1</v>
       </c>
       <c r="B300" t="s">
-        <v>526</v>
+        <v>448</v>
       </c>
       <c r="C300" t="s">
-        <v>526</v>
+        <v>448</v>
       </c>
       <c r="D300" t="s">
         <v>3</v>
       </c>
       <c r="E300" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F300" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G300" t="s">
         <v>6</v>
@@ -7419,10 +7395,10 @@
         <v>8</v>
       </c>
       <c r="L300" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M300" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -7433,10 +7409,10 @@
         <v>8</v>
       </c>
       <c r="L301" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="M301" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -7447,10 +7423,10 @@
         <v>8</v>
       </c>
       <c r="L302" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="M302" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -7458,19 +7434,19 @@
         <v>1</v>
       </c>
       <c r="B303" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C303" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
       </c>
       <c r="E303" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F303" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G303" t="s">
         <v>6</v>
@@ -7479,10 +7455,10 @@
         <v>8</v>
       </c>
       <c r="L303" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="M303" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -7490,16 +7466,16 @@
         <v>3</v>
       </c>
       <c r="H304" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I304" t="s">
         <v>8</v>
       </c>
       <c r="L304" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="M304" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -7507,19 +7483,19 @@
         <v>1</v>
       </c>
       <c r="B305" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C305" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D305" t="s">
         <v>3</v>
       </c>
       <c r="E305" t="s">
-        <v>89</v>
+        <v>529</v>
       </c>
       <c r="F305" t="s">
-        <v>89</v>
+        <v>529</v>
       </c>
       <c r="G305" t="s">
         <v>6</v>
@@ -7528,10 +7504,10 @@
         <v>8</v>
       </c>
       <c r="L305" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M305" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -7539,19 +7515,19 @@
         <v>1</v>
       </c>
       <c r="B306" t="s">
-        <v>418</v>
+        <v>59</v>
       </c>
       <c r="C306" t="s">
-        <v>418</v>
+        <v>59</v>
       </c>
       <c r="D306" t="s">
         <v>3</v>
       </c>
       <c r="E306" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F306" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="G306" t="s">
         <v>6</v>
@@ -7560,10 +7536,10 @@
         <v>8</v>
       </c>
       <c r="L306" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="M306" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -7574,10 +7550,10 @@
         <v>8</v>
       </c>
       <c r="L307" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M307" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -7588,10 +7564,10 @@
         <v>8</v>
       </c>
       <c r="L308" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M308" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -7599,19 +7575,19 @@
         <v>1</v>
       </c>
       <c r="B309" t="s">
-        <v>540</v>
+        <v>68</v>
       </c>
       <c r="C309" t="s">
-        <v>540</v>
+        <v>68</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
       </c>
       <c r="E309" t="s">
-        <v>50</v>
+        <v>432</v>
       </c>
       <c r="F309" t="s">
-        <v>50</v>
+        <v>432</v>
       </c>
       <c r="G309" t="s">
         <v>6</v>
@@ -7620,10 +7596,10 @@
         <v>8</v>
       </c>
       <c r="L309" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="M309" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -7631,16 +7607,16 @@
         <v>3</v>
       </c>
       <c r="H310" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="I310" t="s">
         <v>8</v>
       </c>
       <c r="L310" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M310" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -7651,10 +7627,10 @@
         <v>8</v>
       </c>
       <c r="L311" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M311" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -7662,16 +7638,16 @@
         <v>28</v>
       </c>
       <c r="H312" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I312" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L312" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="M312" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -7682,10 +7658,10 @@
         <v>8</v>
       </c>
       <c r="L313" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="M313" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -7693,34 +7669,34 @@
         <v>1</v>
       </c>
       <c r="B314" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C314" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
       </c>
       <c r="E314" t="s">
-        <v>32</v>
+        <v>541</v>
       </c>
       <c r="F314" t="s">
-        <v>32</v>
+        <v>541</v>
       </c>
       <c r="G314" t="s">
         <v>6</v>
       </c>
       <c r="H314" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="I314" t="s">
         <v>8</v>
       </c>
       <c r="L314" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M314" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -7728,16 +7704,16 @@
         <v>3</v>
       </c>
       <c r="H315" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I315" t="s">
         <v>8</v>
       </c>
       <c r="L315" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M315" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -7745,19 +7721,19 @@
         <v>1</v>
       </c>
       <c r="B316" t="s">
-        <v>65</v>
+        <v>387</v>
       </c>
       <c r="C316" t="s">
-        <v>65</v>
+        <v>387</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
       </c>
       <c r="E316" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="F316" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="G316" t="s">
         <v>6</v>
@@ -7766,10 +7742,10 @@
         <v>8</v>
       </c>
       <c r="L316" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M316" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -7777,19 +7753,19 @@
         <v>1</v>
       </c>
       <c r="B317" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C317" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
       </c>
       <c r="E317" t="s">
-        <v>17</v>
+        <v>448</v>
       </c>
       <c r="F317" t="s">
-        <v>17</v>
+        <v>448</v>
       </c>
       <c r="G317" t="s">
         <v>6</v>
@@ -7798,10 +7774,10 @@
         <v>8</v>
       </c>
       <c r="L317" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M317" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -7812,10 +7788,10 @@
         <v>8</v>
       </c>
       <c r="L318" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="M318" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -7826,10 +7802,10 @@
         <v>8</v>
       </c>
       <c r="L319" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M319" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -7837,19 +7813,19 @@
         <v>1</v>
       </c>
       <c r="B320" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="C320" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
       </c>
       <c r="E320" t="s">
-        <v>499</v>
+        <v>31</v>
       </c>
       <c r="F320" t="s">
-        <v>499</v>
+        <v>31</v>
       </c>
       <c r="G320" t="s">
         <v>6</v>
@@ -7858,10 +7834,10 @@
         <v>8</v>
       </c>
       <c r="L320" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M320" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="321" spans="1:13">
@@ -7869,16 +7845,16 @@
         <v>3</v>
       </c>
       <c r="H321" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I321" t="s">
         <v>8</v>
       </c>
       <c r="L321" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="M321" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -7886,19 +7862,19 @@
         <v>1</v>
       </c>
       <c r="B322" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
       <c r="C322" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
       <c r="D322" t="s">
         <v>3</v>
       </c>
       <c r="E322" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="F322" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="G322" t="s">
         <v>6</v>
@@ -7907,10 +7883,10 @@
         <v>8</v>
       </c>
       <c r="L322" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M322" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="323" spans="1:13">
@@ -7921,10 +7897,10 @@
         <v>8</v>
       </c>
       <c r="L323" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M323" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -7935,10 +7911,10 @@
         <v>8</v>
       </c>
       <c r="L324" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M324" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="325" spans="1:13">
@@ -7946,16 +7922,16 @@
         <v>3</v>
       </c>
       <c r="H325" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I325" t="s">
         <v>8</v>
       </c>
       <c r="L325" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="M325" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="326" spans="1:13">
@@ -7963,19 +7939,19 @@
         <v>1</v>
       </c>
       <c r="B326" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C326" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D326" t="s">
         <v>3</v>
       </c>
       <c r="E326" t="s">
-        <v>70</v>
+        <v>499</v>
       </c>
       <c r="F326" t="s">
-        <v>70</v>
+        <v>499</v>
       </c>
       <c r="G326" t="s">
         <v>6</v>
@@ -7984,10 +7960,10 @@
         <v>8</v>
       </c>
       <c r="L326" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M326" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="327" spans="1:13">
@@ -7995,19 +7971,19 @@
         <v>1</v>
       </c>
       <c r="B327" t="s">
-        <v>447</v>
+        <v>34</v>
       </c>
       <c r="C327" t="s">
-        <v>447</v>
+        <v>34</v>
       </c>
       <c r="D327" t="s">
         <v>3</v>
       </c>
       <c r="E327" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F327" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G327" t="s">
         <v>6</v>
@@ -8016,10 +7992,10 @@
         <v>8</v>
       </c>
       <c r="L327" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M327" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -8030,10 +8006,10 @@
         <v>8</v>
       </c>
       <c r="L328" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M328" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -8041,34 +8017,34 @@
         <v>1</v>
       </c>
       <c r="B329" t="s">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="C329" t="s">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
       </c>
       <c r="E329" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="F329" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="G329" t="s">
         <v>6</v>
       </c>
       <c r="H329" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I329" t="s">
         <v>8</v>
       </c>
       <c r="L329" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="M329" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -8079,10 +8055,10 @@
         <v>8</v>
       </c>
       <c r="L330" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M330" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="331" spans="1:13">
@@ -8090,34 +8066,34 @@
         <v>1</v>
       </c>
       <c r="B331" t="s">
-        <v>571</v>
+        <v>488</v>
       </c>
       <c r="C331" t="s">
-        <v>571</v>
+        <v>488</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
       </c>
       <c r="E331" t="s">
-        <v>572</v>
+        <v>31</v>
       </c>
       <c r="F331" t="s">
-        <v>572</v>
+        <v>31</v>
       </c>
       <c r="G331" t="s">
         <v>6</v>
       </c>
       <c r="H331" t="s">
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="I331" t="s">
         <v>8</v>
       </c>
       <c r="L331" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="M331" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="332" spans="1:13">
@@ -8125,34 +8101,34 @@
         <v>1</v>
       </c>
       <c r="B332" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C332" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D332" t="s">
         <v>3</v>
       </c>
       <c r="E332" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F332" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="G332" t="s">
         <v>6</v>
       </c>
       <c r="H332" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="I332" t="s">
         <v>8</v>
       </c>
       <c r="L332" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="M332" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -8163,10 +8139,10 @@
         <v>8</v>
       </c>
       <c r="L333" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M333" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -8174,34 +8150,34 @@
         <v>1</v>
       </c>
       <c r="B334" t="s">
-        <v>577</v>
+        <v>448</v>
       </c>
       <c r="C334" t="s">
-        <v>577</v>
+        <v>448</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
       </c>
       <c r="E334" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="F334" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="G334" t="s">
         <v>6</v>
       </c>
       <c r="H334" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I334" t="s">
         <v>8</v>
       </c>
       <c r="L334" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="M334" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="335" spans="1:13">
@@ -8212,10 +8188,10 @@
         <v>8</v>
       </c>
       <c r="L335" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="M335" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="336" spans="1:13">
@@ -8226,10 +8202,10 @@
         <v>8</v>
       </c>
       <c r="L336" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="M336" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="337" spans="1:13">
@@ -8237,19 +8213,19 @@
         <v>1</v>
       </c>
       <c r="B337" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="C337" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
       </c>
       <c r="E337" t="s">
-        <v>582</v>
+        <v>387</v>
       </c>
       <c r="F337" t="s">
-        <v>582</v>
+        <v>387</v>
       </c>
       <c r="G337" t="s">
         <v>6</v>
@@ -8258,10 +8234,10 @@
         <v>8</v>
       </c>
       <c r="L337" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="M337" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -8269,34 +8245,34 @@
         <v>1</v>
       </c>
       <c r="B338" t="s">
-        <v>499</v>
+        <v>50</v>
       </c>
       <c r="C338" t="s">
-        <v>499</v>
+        <v>50</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
       </c>
       <c r="E338" t="s">
-        <v>50</v>
+        <v>577</v>
       </c>
       <c r="F338" t="s">
-        <v>50</v>
+        <v>577</v>
       </c>
       <c r="G338" t="s">
         <v>6</v>
       </c>
       <c r="H338" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I338" t="s">
         <v>8</v>
       </c>
       <c r="L338" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="M338" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -8307,10 +8283,10 @@
         <v>8</v>
       </c>
       <c r="L339" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="M339" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="340" spans="1:13">
@@ -8318,19 +8294,19 @@
         <v>1</v>
       </c>
       <c r="B340" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="C340" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="D340" t="s">
         <v>3</v>
       </c>
       <c r="E340" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F340" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="G340" t="s">
         <v>6</v>
@@ -8339,10 +8315,10 @@
         <v>8</v>
       </c>
       <c r="L340" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="M340" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="341" spans="1:13">
@@ -8350,16 +8326,16 @@
         <v>3</v>
       </c>
       <c r="H341" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I341" t="s">
         <v>8</v>
       </c>
       <c r="L341" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="M341" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="342" spans="1:13">
@@ -8367,19 +8343,19 @@
         <v>1</v>
       </c>
       <c r="B342" t="s">
-        <v>447</v>
+        <v>64</v>
       </c>
       <c r="C342" t="s">
-        <v>447</v>
+        <v>64</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
       </c>
       <c r="E342" t="s">
-        <v>591</v>
+        <v>420</v>
       </c>
       <c r="F342" t="s">
-        <v>591</v>
+        <v>420</v>
       </c>
       <c r="G342" t="s">
         <v>6</v>
@@ -8388,10 +8364,10 @@
         <v>8</v>
       </c>
       <c r="L342" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="M342" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
